--- a/backend-code/LoginDetails.xlsx
+++ b/backend-code/LoginDetails.xlsx
@@ -37,7 +37,7 @@
     <t>team1</t>
   </si>
   <si>
-    <t>pwd</t>
+    <t>PYNJI0IN</t>
   </si>
   <si>
     <t>Team 2</t>
@@ -49,7 +49,7 @@
     <t>team2</t>
   </si>
   <si>
-    <t>pwd23</t>
+    <t>QF1T54M3</t>
   </si>
 </sst>
 </file>

--- a/backend-code/LoginDetails.xlsx
+++ b/backend-code/LoginDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="1108">
   <si>
     <t>Name</t>
   </si>
@@ -31,784 +31,16 @@
     <t>Batch</t>
   </si>
   <si>
-    <t>Aadil Zubair Khalifa</t>
-  </si>
-  <si>
-    <t>191IT101</t>
-  </si>
-  <si>
-    <t>aadilkhalifa</t>
-  </si>
-  <si>
-    <t>aadilkhalifa191IT101</t>
-  </si>
-  <si>
-    <t>Aakarshee Jain</t>
-  </si>
-  <si>
-    <t>191CS102</t>
-  </si>
-  <si>
-    <t>aakarsheejain</t>
-  </si>
-  <si>
-    <t>aakarsheejain191CS102</t>
-  </si>
-  <si>
-    <t>Aditya Santhosh</t>
-  </si>
-  <si>
-    <t>191CS105</t>
-  </si>
-  <si>
-    <t>adityasanthosh</t>
-  </si>
-  <si>
-    <t>adityasanthosh191CS105</t>
-  </si>
-  <si>
-    <t>Akshay B Bistagond</t>
-  </si>
-  <si>
-    <t>191EC203</t>
-  </si>
-  <si>
-    <t>akshaybistagond</t>
-  </si>
-  <si>
-    <t>akshaybistagond191EC203</t>
-  </si>
-  <si>
-    <t>Amogh Manikkuwar</t>
-  </si>
-  <si>
-    <t>191ME111</t>
-  </si>
-  <si>
-    <t>amoghmanikkuwar</t>
-  </si>
-  <si>
-    <t>amoghmanikkuwar191ME111</t>
-  </si>
-  <si>
-    <t>Ananta Shanbhag</t>
-  </si>
-  <si>
-    <t>191ME112</t>
-  </si>
-  <si>
-    <t>anantashanbhag</t>
-  </si>
-  <si>
-    <t>anantashanbhag191ME112</t>
-  </si>
-  <si>
-    <t>Ankit Stephen Thomas</t>
-  </si>
-  <si>
-    <t>191CH007</t>
-  </si>
-  <si>
-    <t>ankitthomas</t>
-  </si>
-  <si>
-    <t>ankitthomas191CH007</t>
-  </si>
-  <si>
-    <t>Anuja Goyal</t>
-  </si>
-  <si>
-    <t>191EC206</t>
-  </si>
-  <si>
-    <t>anujagoyal</t>
-  </si>
-  <si>
-    <t>anujagoyal191EC206</t>
-  </si>
-  <si>
-    <t>Anushruta Tripathi</t>
-  </si>
-  <si>
-    <t>191EE205</t>
-  </si>
-  <si>
-    <t>anushrutatripathi</t>
-  </si>
-  <si>
-    <t>anushrutatripathi191EE205</t>
-  </si>
-  <si>
-    <t>Atharva Sarang Joshi</t>
-  </si>
-  <si>
-    <t>191ME215</t>
-  </si>
-  <si>
-    <t>atharvajoshi</t>
-  </si>
-  <si>
-    <t>atharvajoshi191ME215</t>
-  </si>
-  <si>
-    <t>Ayush Mangukia</t>
-  </si>
-  <si>
-    <t>191IT211</t>
-  </si>
-  <si>
-    <t>ayushmangukia</t>
-  </si>
-  <si>
-    <t>ayushmangukia191IT211</t>
-  </si>
-  <si>
-    <t>Ayush Tripathi</t>
-  </si>
-  <si>
-    <t>191ME120</t>
-  </si>
-  <si>
-    <t>ayushtripathi</t>
-  </si>
-  <si>
-    <t>ayushtripathi191ME120</t>
-  </si>
-  <si>
-    <t>Balajinaidu V</t>
-  </si>
-  <si>
-    <t>191ec111</t>
-  </si>
-  <si>
-    <t>balajinaiduv</t>
-  </si>
-  <si>
-    <t>balajinaiduv191ec111</t>
-  </si>
-  <si>
-    <t>Chandana RV</t>
-  </si>
-  <si>
-    <t>191CV112</t>
-  </si>
-  <si>
-    <t>chandanarv</t>
-  </si>
-  <si>
-    <t>chandanarv191CV112</t>
-  </si>
-  <si>
-    <t>Cyriac Talus</t>
-  </si>
-  <si>
-    <t>191ME126</t>
-  </si>
-  <si>
-    <t>cyriactalus</t>
-  </si>
-  <si>
-    <t>cyriactalus191ME126</t>
-  </si>
-  <si>
-    <t>Dhruv Banerjee</t>
-  </si>
-  <si>
-    <t>191CH013</t>
-  </si>
-  <si>
-    <t>dhruvbanerjee</t>
-  </si>
-  <si>
-    <t>dhruvbanerjee191CH013</t>
-  </si>
-  <si>
-    <t>Divesh Sakhuja</t>
-  </si>
-  <si>
-    <t>191EC116</t>
-  </si>
-  <si>
-    <t>diveshsakhuja</t>
-  </si>
-  <si>
-    <t>diveshsakhuja191EC116</t>
-  </si>
-  <si>
-    <t>Fouzan tinwala</t>
-  </si>
-  <si>
-    <t>191EE117</t>
-  </si>
-  <si>
-    <t>fouzantinwala</t>
-  </si>
-  <si>
-    <t>fouzantinwala191EE117</t>
-  </si>
-  <si>
-    <t>Gayathri nisha</t>
-  </si>
-  <si>
-    <t>191IT116</t>
-  </si>
-  <si>
-    <t>gayathrinisha</t>
-  </si>
-  <si>
-    <t>gayathrinisha191IT116</t>
-  </si>
-  <si>
-    <t>Harshavardhan D</t>
-  </si>
-  <si>
-    <t>191EE123</t>
-  </si>
-  <si>
-    <t>harshavardhand</t>
-  </si>
-  <si>
-    <t>harshavardhand191EE123</t>
-  </si>
-  <si>
-    <t>Imtiaz Abdul Gafur</t>
-  </si>
-  <si>
-    <t>191CV121</t>
-  </si>
-  <si>
-    <t>imtiazgafur</t>
-  </si>
-  <si>
-    <t>imtiazgafur191CV121</t>
-  </si>
-  <si>
-    <t>Joshitha Reddy D</t>
-  </si>
-  <si>
-    <t>191CS126</t>
-  </si>
-  <si>
-    <t>joshithad</t>
-  </si>
-  <si>
-    <t>joshithad191CS126</t>
-  </si>
-  <si>
-    <t>Kaveen Srikanthan</t>
-  </si>
-  <si>
-    <t>191EC215</t>
-  </si>
-  <si>
-    <t>kaveensrikanthan</t>
-  </si>
-  <si>
-    <t>kaveensrikanthan191EC215</t>
-  </si>
-  <si>
-    <t>Keesara Vennela</t>
-  </si>
-  <si>
-    <t>191EC216</t>
-  </si>
-  <si>
-    <t>keesaravennela</t>
-  </si>
-  <si>
-    <t>keesaravennela191EC216</t>
-  </si>
-  <si>
-    <t>Krishna Prasad Kuddannaya</t>
-  </si>
-  <si>
-    <t>191CV223</t>
-  </si>
-  <si>
-    <t>krishnakuddannaya</t>
-  </si>
-  <si>
-    <t>krishnakuddannaya191CV223</t>
-  </si>
-  <si>
-    <t>Kumar Vitthal</t>
-  </si>
-  <si>
-    <t>191EC221</t>
-  </si>
-  <si>
-    <t>kumarvitthal</t>
-  </si>
-  <si>
-    <t>kumarvitthal191EC221</t>
-  </si>
-  <si>
-    <t>Mansi Singh</t>
-  </si>
-  <si>
-    <t>191CS135</t>
-  </si>
-  <si>
-    <t>mansisingh</t>
-  </si>
-  <si>
-    <t>mansisingh191CS135</t>
-  </si>
-  <si>
-    <t>Nitesh Kumar Gupta</t>
-  </si>
-  <si>
-    <t>191ME252</t>
-  </si>
-  <si>
-    <t>niteshgupta</t>
-  </si>
-  <si>
-    <t>niteshgupta191ME252</t>
-  </si>
-  <si>
-    <t>Vishal P</t>
-  </si>
-  <si>
-    <t>191EE139</t>
-  </si>
-  <si>
-    <t>vishalp</t>
-  </si>
-  <si>
-    <t>vishalp191EE139</t>
-  </si>
-  <si>
-    <t>Pavan C</t>
-  </si>
-  <si>
-    <t>191ME156</t>
-  </si>
-  <si>
-    <t>pavanc</t>
-  </si>
-  <si>
-    <t>pavanc191ME156</t>
-  </si>
-  <si>
-    <t>Pavan M Gowda</t>
-  </si>
-  <si>
-    <t>191CH034</t>
-  </si>
-  <si>
-    <t>pavangowda</t>
-  </si>
-  <si>
-    <t>pavangowda191CH034</t>
-  </si>
-  <si>
-    <t>Pranav Surendran</t>
-  </si>
-  <si>
-    <t>191IT239</t>
-  </si>
-  <si>
-    <t>pranavsurendran</t>
-  </si>
-  <si>
-    <t>pranavsurendran191IT239</t>
-  </si>
-  <si>
-    <t>Prathap Y</t>
-  </si>
-  <si>
-    <t>191CV156</t>
-  </si>
-  <si>
-    <t>prathapy</t>
-  </si>
-  <si>
-    <t>prathapy191CV156</t>
-  </si>
-  <si>
-    <t>Pratik Kumar Shivnani</t>
-  </si>
-  <si>
-    <t>191IT242</t>
-  </si>
-  <si>
-    <t>pratikshivnani</t>
-  </si>
-  <si>
-    <t>pratikshivnani191IT242</t>
-  </si>
-  <si>
-    <t>Raghavendra R</t>
-  </si>
-  <si>
-    <t>191CH036</t>
-  </si>
-  <si>
-    <t>raghavendrar</t>
-  </si>
-  <si>
-    <t>raghavendrar191CH036</t>
-  </si>
-  <si>
-    <t>Raghav Ganesh</t>
-  </si>
-  <si>
-    <t>191ME241</t>
-  </si>
-  <si>
-    <t>raghavganesh</t>
-  </si>
-  <si>
-    <t>raghavganesh191ME241</t>
-  </si>
-  <si>
-    <t>Rahul Kumar</t>
-  </si>
-  <si>
-    <t>191CS239</t>
-  </si>
-  <si>
-    <t>rahulkumar</t>
-  </si>
-  <si>
-    <t>rahulkumar191CS239</t>
-  </si>
-  <si>
-    <t>Rahul Maheshwari</t>
-  </si>
-  <si>
-    <t>191CH039</t>
-  </si>
-  <si>
-    <t>rahulmaheshwari</t>
-  </si>
-  <si>
-    <t>rahulmaheshwari191CH039</t>
-  </si>
-  <si>
-    <t>Ranjeet Sonawane</t>
-  </si>
-  <si>
-    <t>191CV146</t>
-  </si>
-  <si>
-    <t>ranjeetsonawane</t>
-  </si>
-  <si>
-    <t>ranjeetsonawane191CV146</t>
-  </si>
-  <si>
-    <t>Reshma Tresa Antony</t>
-  </si>
-  <si>
-    <t>191CS149</t>
-  </si>
-  <si>
-    <t>reshmaantony</t>
-  </si>
-  <si>
-    <t>reshmaantony191CS149</t>
-  </si>
-  <si>
-    <t>Ritvika R Bolugudde</t>
-  </si>
-  <si>
-    <t>191ME171</t>
-  </si>
-  <si>
-    <t>ritvikabolugudde</t>
-  </si>
-  <si>
-    <t>ritvikabolugudde191ME171</t>
-  </si>
-  <si>
-    <t>Rohaan Sunil</t>
-  </si>
-  <si>
-    <t>191CH041</t>
-  </si>
-  <si>
-    <t>rohaansunil</t>
-  </si>
-  <si>
-    <t>rohaansunil191CH041</t>
-  </si>
-  <si>
-    <t>Rohan Suratkal</t>
-  </si>
-  <si>
-    <t>191CH042</t>
-  </si>
-  <si>
-    <t>rohansuratkal</t>
-  </si>
-  <si>
-    <t>rohansuratkal191CH042</t>
-  </si>
-  <si>
-    <t>Roopam Dhaneria</t>
-  </si>
-  <si>
-    <t>191EE239</t>
-  </si>
-  <si>
-    <t>roopamdhaneria</t>
-  </si>
-  <si>
-    <t>roopamdhaneria191EE239</t>
-  </si>
-  <si>
-    <t>Rugved Pande</t>
-  </si>
-  <si>
-    <t>191CH043</t>
-  </si>
-  <si>
-    <t>rugvedpande</t>
-  </si>
-  <si>
-    <t>rugvedpande191CH043</t>
-  </si>
-  <si>
-    <t>Sai Rohit Pudipeddi</t>
-  </si>
-  <si>
-    <t>191EE241</t>
-  </si>
-  <si>
-    <t>saipudipeddi</t>
-  </si>
-  <si>
-    <t>saipudipeddi191EE241</t>
-  </si>
-  <si>
-    <t>Sakshi Mahesh Babar</t>
-  </si>
-  <si>
-    <t>191ME198</t>
-  </si>
-  <si>
-    <t>sakshibabar</t>
-  </si>
-  <si>
-    <t>sakshibabar191ME198</t>
-  </si>
-  <si>
-    <t>Sarthak Jain</t>
-  </si>
-  <si>
-    <t>191IT145</t>
-  </si>
-  <si>
-    <t>sarthakjain</t>
-  </si>
-  <si>
-    <t>sarthakjain191IT145</t>
-  </si>
-  <si>
-    <t>Shivraj Dharwad</t>
-  </si>
-  <si>
-    <t>191ME179</t>
-  </si>
-  <si>
-    <t>shivrajdharwad</t>
-  </si>
-  <si>
-    <t>shivrajdharwad191ME179</t>
-  </si>
-  <si>
-    <t>Shridevi Kumar</t>
-  </si>
-  <si>
-    <t>191EC150</t>
-  </si>
-  <si>
-    <t>shridevikumar</t>
-  </si>
-  <si>
-    <t>shridevikumar191EC150</t>
-  </si>
-  <si>
-    <t>Shriroop Roychoudhury</t>
-  </si>
-  <si>
-    <t>191EC248</t>
-  </si>
-  <si>
-    <t>shrirooproychoudhury</t>
-  </si>
-  <si>
-    <t>shrirooproychoudhury191EC248</t>
-  </si>
-  <si>
-    <t>Susmita Saha</t>
-  </si>
-  <si>
-    <t>191CH054</t>
-  </si>
-  <si>
-    <t>susmitasaha</t>
-  </si>
-  <si>
-    <t>susmitasaha191CH054</t>
-  </si>
-  <si>
-    <t>Vaibhav Pratap</t>
-  </si>
-  <si>
-    <t>191CV153</t>
-  </si>
-  <si>
-    <t>vaibhavpratap</t>
-  </si>
-  <si>
-    <t>vaibhavpratap191CV153</t>
-  </si>
-  <si>
-    <t>Achyut Shegade</t>
-  </si>
-  <si>
-    <t>191EE101</t>
-  </si>
-  <si>
-    <t>achyutshegade</t>
-  </si>
-  <si>
-    <t>achyutshegade191EE101</t>
-  </si>
-  <si>
-    <t>Koneru Nikhil</t>
-  </si>
-  <si>
-    <t>191EC219</t>
-  </si>
-  <si>
-    <t>konerunikhil</t>
-  </si>
-  <si>
-    <t>konerunikhil191EC219</t>
-  </si>
-  <si>
-    <t>Kotha Vamsi Manjunadha</t>
-  </si>
-  <si>
-    <t>191EC220</t>
-  </si>
-  <si>
-    <t>kothamanjunadha</t>
-  </si>
-  <si>
-    <t>kothamanjunadha191EC220</t>
-  </si>
-  <si>
-    <t>Lakshmi Bharathi</t>
-  </si>
-  <si>
-    <t>191ME240</t>
-  </si>
-  <si>
-    <t>lakshmibharathi</t>
-  </si>
-  <si>
-    <t>lakshmibharathi191ME240</t>
-  </si>
-  <si>
-    <t>Abhay Narendranath Parappalli</t>
-  </si>
-  <si>
-    <t>191CV102</t>
-  </si>
-  <si>
-    <t>abhayparappalli</t>
-  </si>
-  <si>
-    <t>abhayparappalli191CV102</t>
-  </si>
-  <si>
-    <t>Abhishek Chavan</t>
-  </si>
-  <si>
-    <t>191MT001</t>
-  </si>
-  <si>
-    <t>abhishekchavan</t>
-  </si>
-  <si>
-    <t>abhishekchavan191MT001</t>
-  </si>
-  <si>
-    <t>ARJUN ANIL</t>
-  </si>
-  <si>
-    <t>191CV204</t>
-  </si>
-  <si>
-    <t>arjunanil</t>
-  </si>
-  <si>
-    <t>arjunanil191CV204</t>
-  </si>
-  <si>
-    <t>Lucky Prameeth</t>
-  </si>
-  <si>
-    <t>191ME146</t>
-  </si>
-  <si>
-    <t>luckyprameeth</t>
-  </si>
-  <si>
-    <t>luckyprameeth191ME146</t>
-  </si>
-  <si>
-    <t>Pratik Doddamani</t>
-  </si>
-  <si>
-    <t>191MT035</t>
-  </si>
-  <si>
-    <t>pratikdoddamani</t>
-  </si>
-  <si>
-    <t>pratikdoddamani191MT035</t>
-  </si>
-  <si>
-    <t>Akash Kori</t>
-  </si>
-  <si>
-    <t>191CV108</t>
-  </si>
-  <si>
-    <t>akashkori</t>
-  </si>
-  <si>
-    <t>akashkori191CV108</t>
-  </si>
-  <si>
-    <t>Sanjay C Hegde</t>
-  </si>
-  <si>
-    <t>191MT042</t>
-  </si>
-  <si>
-    <t>sanjayhegde</t>
-  </si>
-  <si>
-    <t>sanjayhegde191MT042</t>
-  </si>
-  <si>
-    <t>Harini Thirunavukkarasan</t>
-  </si>
-  <si>
-    <t>191IT221</t>
-  </si>
-  <si>
-    <t>harinithirunavukkarasan</t>
-  </si>
-  <si>
-    <t>harinithirunavukkarasan191IT221</t>
+    <t>Alokik Kumar Sinha</t>
+  </si>
+  <si>
+    <t>201CH008</t>
+  </si>
+  <si>
+    <t>alokiksinha</t>
+  </si>
+  <si>
+    <t>alokiksinha201CH008</t>
   </si>
   <si>
     <t>D S Krishna Souri</t>
@@ -823,6 +55,18 @@
     <t>dsouri201CH022</t>
   </si>
   <si>
+    <t>Jitin Viji Mandokara</t>
+  </si>
+  <si>
+    <t>201CH027</t>
+  </si>
+  <si>
+    <t>jitinmandokara</t>
+  </si>
+  <si>
+    <t>jitinmandokara201CH027</t>
+  </si>
+  <si>
     <t>Nischal E B</t>
   </si>
   <si>
@@ -835,6 +79,42 @@
     <t>nischalb201CH040</t>
   </si>
   <si>
+    <t>Nithila Cariappa</t>
+  </si>
+  <si>
+    <t>201CH041</t>
+  </si>
+  <si>
+    <t>nithilacariappa</t>
+  </si>
+  <si>
+    <t>nithilacariappa201CH041</t>
+  </si>
+  <si>
+    <t>Ojas Agrawal</t>
+  </si>
+  <si>
+    <t>201CH042</t>
+  </si>
+  <si>
+    <t>ojasagrawal</t>
+  </si>
+  <si>
+    <t>ojasagrawal201CH042</t>
+  </si>
+  <si>
+    <t>Radhika Rathi</t>
+  </si>
+  <si>
+    <t>201CH043</t>
+  </si>
+  <si>
+    <t>radhikarathi</t>
+  </si>
+  <si>
+    <t>radhikarathi201CH043</t>
+  </si>
+  <si>
     <t>Sanyu Dsouza</t>
   </si>
   <si>
@@ -847,6 +127,42 @@
     <t>sanyudsouza201CH051</t>
   </si>
   <si>
+    <t>Shreesha N A</t>
+  </si>
+  <si>
+    <t>201CH052</t>
+  </si>
+  <si>
+    <t>shreeshaa</t>
+  </si>
+  <si>
+    <t>shreeshaa201CH052</t>
+  </si>
+  <si>
+    <t>Soumyakanta Sahoo</t>
+  </si>
+  <si>
+    <t>201CH053</t>
+  </si>
+  <si>
+    <t>soumyakantasahoo</t>
+  </si>
+  <si>
+    <t>soumyakantasahoo201CH053</t>
+  </si>
+  <si>
+    <t>Udaya Kiran</t>
+  </si>
+  <si>
+    <t>201CH058</t>
+  </si>
+  <si>
+    <t>udayakiran</t>
+  </si>
+  <si>
+    <t>udayakiran201CH058</t>
+  </si>
+  <si>
     <t>Vinayak V Nayak</t>
   </si>
   <si>
@@ -871,6 +187,306 @@
     <t>vishnuradhakrishnan201CH062</t>
   </si>
   <si>
+    <t>Somayajula Krishna Aswin</t>
+  </si>
+  <si>
+    <t>201CH068</t>
+  </si>
+  <si>
+    <t>somayajulaaswin</t>
+  </si>
+  <si>
+    <t>somayajulaaswin201CH068</t>
+  </si>
+  <si>
+    <t>Adhith</t>
+  </si>
+  <si>
+    <t>201CS104</t>
+  </si>
+  <si>
+    <t>adhith</t>
+  </si>
+  <si>
+    <t>adhith201CS104</t>
+  </si>
+  <si>
+    <t>Chandini Rongali</t>
+  </si>
+  <si>
+    <t>201CS115</t>
+  </si>
+  <si>
+    <t>chandinirongali</t>
+  </si>
+  <si>
+    <t>chandinirongali201CS115</t>
+  </si>
+  <si>
+    <t>Deepam Damu Naik</t>
+  </si>
+  <si>
+    <t>201CS169</t>
+  </si>
+  <si>
+    <t>deepamnaik</t>
+  </si>
+  <si>
+    <t>deepamnaik201CS169</t>
+  </si>
+  <si>
+    <t>Clifford Reeve Menezes</t>
+  </si>
+  <si>
+    <t>201CS215</t>
+  </si>
+  <si>
+    <t>cliffordmenezes</t>
+  </si>
+  <si>
+    <t>cliffordmenezes201CS215</t>
+  </si>
+  <si>
+    <t>Prathamesh Dongritot</t>
+  </si>
+  <si>
+    <t>201CS242</t>
+  </si>
+  <si>
+    <t>prathameshdongritot</t>
+  </si>
+  <si>
+    <t>prathameshdongritot201CS242</t>
+  </si>
+  <si>
+    <t>Abel George</t>
+  </si>
+  <si>
+    <t>201CV101</t>
+  </si>
+  <si>
+    <t>abelgeorge</t>
+  </si>
+  <si>
+    <t>abelgeorge201CV101</t>
+  </si>
+  <si>
+    <t>Allen Varghese Paul</t>
+  </si>
+  <si>
+    <t>201CV103</t>
+  </si>
+  <si>
+    <t>allenpaul</t>
+  </si>
+  <si>
+    <t>allenpaul201CV103</t>
+  </si>
+  <si>
+    <t>Andrea Thomas</t>
+  </si>
+  <si>
+    <t>201CV108</t>
+  </si>
+  <si>
+    <t>andreathomas</t>
+  </si>
+  <si>
+    <t>andreathomas201CV108</t>
+  </si>
+  <si>
+    <t>Gopika  Sasidharan</t>
+  </si>
+  <si>
+    <t>201CV119</t>
+  </si>
+  <si>
+    <t>gopikasasidharan</t>
+  </si>
+  <si>
+    <t>gopikasasidharan201CV119</t>
+  </si>
+  <si>
+    <t>Kaushal Nayak</t>
+  </si>
+  <si>
+    <t>201cv126</t>
+  </si>
+  <si>
+    <t>kaushalnayak</t>
+  </si>
+  <si>
+    <t>kaushalnayak201cv126</t>
+  </si>
+  <si>
+    <t>Nihal Badiger</t>
+  </si>
+  <si>
+    <t>201CV135</t>
+  </si>
+  <si>
+    <t>nihalbadiger</t>
+  </si>
+  <si>
+    <t>nihalbadiger201CV135</t>
+  </si>
+  <si>
+    <t>Praneeth S</t>
+  </si>
+  <si>
+    <t>201CV138</t>
+  </si>
+  <si>
+    <t>praneeths</t>
+  </si>
+  <si>
+    <t>praneeths201CV138</t>
+  </si>
+  <si>
+    <t>shashank pandey</t>
+  </si>
+  <si>
+    <t>201cv150</t>
+  </si>
+  <si>
+    <t>shashankpandey</t>
+  </si>
+  <si>
+    <t>shashankpandey201cv150</t>
+  </si>
+  <si>
+    <t>Vighnesh Alungal</t>
+  </si>
+  <si>
+    <t>201CV159</t>
+  </si>
+  <si>
+    <t>vighneshalungal</t>
+  </si>
+  <si>
+    <t>vighneshalungal201CV159</t>
+  </si>
+  <si>
+    <t>Anagha Dileep</t>
+  </si>
+  <si>
+    <t>201CV207</t>
+  </si>
+  <si>
+    <t>anaghadileep</t>
+  </si>
+  <si>
+    <t>anaghadileep201CV207</t>
+  </si>
+  <si>
+    <t>Farhan Hassan Noorudheen</t>
+  </si>
+  <si>
+    <t>201CV217</t>
+  </si>
+  <si>
+    <t>farhannoorudheen</t>
+  </si>
+  <si>
+    <t>farhannoorudheen201CV217</t>
+  </si>
+  <si>
+    <t>Pushpendra Rajak</t>
+  </si>
+  <si>
+    <t>201CV241</t>
+  </si>
+  <si>
+    <t>pushpendrarajak</t>
+  </si>
+  <si>
+    <t>pushpendrarajak201CV241</t>
+  </si>
+  <si>
+    <t>Rohan Sorathiya</t>
+  </si>
+  <si>
+    <t>201cv244</t>
+  </si>
+  <si>
+    <t>rohansorathiya</t>
+  </si>
+  <si>
+    <t>rohansorathiya201cv244</t>
+  </si>
+  <si>
+    <t>Saloni Mathur</t>
+  </si>
+  <si>
+    <t>201CV265</t>
+  </si>
+  <si>
+    <t>salonimathur</t>
+  </si>
+  <si>
+    <t>salonimathur201CV265</t>
+  </si>
+  <si>
+    <t>Bhuvan N M</t>
+  </si>
+  <si>
+    <t>201EC110</t>
+  </si>
+  <si>
+    <t>bhuvanm</t>
+  </si>
+  <si>
+    <t>bhuvanm201EC110</t>
+  </si>
+  <si>
+    <t>Madhunala Nikhil</t>
+  </si>
+  <si>
+    <t>201EC131</t>
+  </si>
+  <si>
+    <t>madhunalanikhil</t>
+  </si>
+  <si>
+    <t>madhunalanikhil201EC131</t>
+  </si>
+  <si>
+    <t>Prerana Prakash</t>
+  </si>
+  <si>
+    <t>201EC147</t>
+  </si>
+  <si>
+    <t>preranaprakash</t>
+  </si>
+  <si>
+    <t>preranaprakash201EC147</t>
+  </si>
+  <si>
+    <t>PULLAGURLA ABHIJITH REDDY</t>
+  </si>
+  <si>
+    <t>201EC148</t>
+  </si>
+  <si>
+    <t>pullagurlareddy</t>
+  </si>
+  <si>
+    <t>pullagurlareddy201EC148</t>
+  </si>
+  <si>
+    <t>N Guna Vardhan Vyas</t>
+  </si>
+  <si>
+    <t>201EC201</t>
+  </si>
+  <si>
+    <t>nvyas</t>
+  </si>
+  <si>
+    <t>nvyas201EC201</t>
+  </si>
+  <si>
     <t>Aneesh Kulkarni</t>
   </si>
   <si>
@@ -883,16 +499,40 @@
     <t>aneeshkulkarni201EC208</t>
   </si>
   <si>
-    <t>Bhuvan N M</t>
-  </si>
-  <si>
-    <t>201EC110</t>
-  </si>
-  <si>
-    <t>bhuvanm</t>
-  </si>
-  <si>
-    <t>bhuvanm201EC110</t>
+    <t>Rahul Gaikwad</t>
+  </si>
+  <si>
+    <t>201EC221</t>
+  </si>
+  <si>
+    <t>rahulgaikwad</t>
+  </si>
+  <si>
+    <t>rahulgaikwad201EC221</t>
+  </si>
+  <si>
+    <t>Pavithra Ananthakrishnan</t>
+  </si>
+  <si>
+    <t>201EC245</t>
+  </si>
+  <si>
+    <t>pavithraananthakrishnan</t>
+  </si>
+  <si>
+    <t>pavithraananthakrishnan201EC245</t>
+  </si>
+  <si>
+    <t>Prateek Bhat</t>
+  </si>
+  <si>
+    <t>201EC249</t>
+  </si>
+  <si>
+    <t>prateekbhat</t>
+  </si>
+  <si>
+    <t>prateekbhat201EC249</t>
   </si>
   <si>
     <t>Harsh nahata</t>
@@ -907,16 +547,40 @@
     <t>harshnahata201EE123</t>
   </si>
   <si>
-    <t>Madhunala Nikhil</t>
-  </si>
-  <si>
-    <t>201EC131</t>
-  </si>
-  <si>
-    <t>madhunalanikhil</t>
-  </si>
-  <si>
-    <t>madhunalanikhil201EC131</t>
+    <t>Marthi. N. V. S. Sri. Harsha</t>
+  </si>
+  <si>
+    <t>201EE131</t>
+  </si>
+  <si>
+    <t>marthi.harsha</t>
+  </si>
+  <si>
+    <t>marthi.harsha201EE131</t>
+  </si>
+  <si>
+    <t>Arunachalam Solayappan</t>
+  </si>
+  <si>
+    <t>201EE158</t>
+  </si>
+  <si>
+    <t>arunachalamsolayappan</t>
+  </si>
+  <si>
+    <t>arunachalamsolayappan201EE158</t>
+  </si>
+  <si>
+    <t>Anjishnu Laskar</t>
+  </si>
+  <si>
+    <t>201EE208</t>
+  </si>
+  <si>
+    <t>anjishnulaskar</t>
+  </si>
+  <si>
+    <t>anjishnulaskar201EE208</t>
   </si>
   <si>
     <t>Malkangouda S Patil</t>
@@ -943,88 +607,76 @@
     <t>nihars201EE236</t>
   </si>
   <si>
-    <t>Prerana Prakash</t>
-  </si>
-  <si>
-    <t>201EC147</t>
-  </si>
-  <si>
-    <t>preranaprakash</t>
-  </si>
-  <si>
-    <t>preranaprakash201EC147</t>
-  </si>
-  <si>
-    <t>PULLAGURLA ABHIJITH REDDY</t>
-  </si>
-  <si>
-    <t>201EC148</t>
-  </si>
-  <si>
-    <t>pullagurlareddy</t>
-  </si>
-  <si>
-    <t>pullagurlareddy201EC148</t>
-  </si>
-  <si>
-    <t>Rahul Gaikwad</t>
-  </si>
-  <si>
-    <t>201EC221</t>
-  </si>
-  <si>
-    <t>rahulgaikwad</t>
-  </si>
-  <si>
-    <t>rahulgaikwad201EC221</t>
-  </si>
-  <si>
-    <t>Somayajula Krishna Aswin</t>
-  </si>
-  <si>
-    <t>201CH068</t>
-  </si>
-  <si>
-    <t>somayajulaaswin</t>
-  </si>
-  <si>
-    <t>somayajulaaswin201CH068</t>
-  </si>
-  <si>
-    <t>Zeeshan Ali M Kadampur</t>
-  </si>
-  <si>
-    <t>201EC168</t>
-  </si>
-  <si>
-    <t>zeeshankadampur</t>
-  </si>
-  <si>
-    <t>zeeshankadampur201EC168</t>
-  </si>
-  <si>
-    <t>Alokik Kumar Sinha</t>
-  </si>
-  <si>
-    <t>201CH008</t>
-  </si>
-  <si>
-    <t>alokiksinha</t>
-  </si>
-  <si>
-    <t>alokiksinha201CH008</t>
-  </si>
-  <si>
-    <t>Anjishnu Laskar</t>
-  </si>
-  <si>
-    <t>201EE208</t>
-  </si>
-  <si>
-    <t>anjishnulaskar</t>
-  </si>
-  <si>
-    <t>anjishnulaskar201EE208</t>
+    <t>Adarsh Kishore</t>
+  </si>
+  <si>
+    <t>201IT103</t>
+  </si>
+  <si>
+    <t>adarshkishore</t>
+  </si>
+  <si>
+    <t>adarshkishore201IT103</t>
+  </si>
+  <si>
+    <t>Buddha Teja</t>
+  </si>
+  <si>
+    <t>201IT115</t>
+  </si>
+  <si>
+    <t>buddhateja</t>
+  </si>
+  <si>
+    <t>buddhateja201IT115</t>
+  </si>
+  <si>
+    <t>Malvika Koushik</t>
+  </si>
+  <si>
+    <t>201IT134</t>
+  </si>
+  <si>
+    <t>malvikakoushik</t>
+  </si>
+  <si>
+    <t>malvikakoushik201IT134</t>
+  </si>
+  <si>
+    <t>SANKET</t>
+  </si>
+  <si>
+    <t>201IT154</t>
+  </si>
+  <si>
+    <t>sanket</t>
+  </si>
+  <si>
+    <t>sanket201IT154</t>
+  </si>
+  <si>
+    <t>Shalaka Sankar</t>
+  </si>
+  <si>
+    <t>201IT158</t>
+  </si>
+  <si>
+    <t>shalakasankar</t>
+  </si>
+  <si>
+    <t>shalakasankar201IT158</t>
+  </si>
+  <si>
+    <t>Vanessa Maria Fernandes</t>
+  </si>
+  <si>
+    <t>201IT164</t>
+  </si>
+  <si>
+    <t>vanessafernandes</t>
+  </si>
+  <si>
+    <t>vanessafernandes201IT164</t>
   </si>
   <si>
     <t>Hanuma Vamsi Narasingula</t>
@@ -1039,6 +691,42 @@
     <t>hanumanarasingula201IT222</t>
   </si>
   <si>
+    <t>Karan Dhinakaran</t>
+  </si>
+  <si>
+    <t>201ME116</t>
+  </si>
+  <si>
+    <t>karandhinakaran</t>
+  </si>
+  <si>
+    <t>karandhinakaran201ME116</t>
+  </si>
+  <si>
+    <t>Shaik Dilshad Begum</t>
+  </si>
+  <si>
+    <t>201ME151</t>
+  </si>
+  <si>
+    <t>shaikbegum</t>
+  </si>
+  <si>
+    <t>shaikbegum201ME151</t>
+  </si>
+  <si>
+    <t>Shivavasthan D</t>
+  </si>
+  <si>
+    <t>201me154</t>
+  </si>
+  <si>
+    <t>shivavasthand</t>
+  </si>
+  <si>
+    <t>shivavasthand201me154</t>
+  </si>
+  <si>
     <t>Abishek V</t>
   </si>
   <si>
@@ -1051,16 +739,16 @@
     <t>abishekv201ME202</t>
   </si>
   <si>
-    <t>Karan Dhinakaran</t>
-  </si>
-  <si>
-    <t>201ME116</t>
-  </si>
-  <si>
-    <t>karandhinakaran</t>
-  </si>
-  <si>
-    <t>karandhinakaran201ME116</t>
+    <t>Balachandar Raman Vasan</t>
+  </si>
+  <si>
+    <t>201ME212</t>
+  </si>
+  <si>
+    <t>balachandarvasan</t>
+  </si>
+  <si>
+    <t>balachandarvasan201ME212</t>
   </si>
   <si>
     <t>Kishlay Singh</t>
@@ -1075,16 +763,52 @@
     <t>kishlaysingh201ME229</t>
   </si>
   <si>
-    <t>Munduri Chandra Hasa</t>
-  </si>
-  <si>
-    <t>201ME336</t>
-  </si>
-  <si>
-    <t>mundurihasa</t>
-  </si>
-  <si>
-    <t>mundurihasa201ME336</t>
+    <t>MATCHA NITIN</t>
+  </si>
+  <si>
+    <t>201ME233</t>
+  </si>
+  <si>
+    <t>matchanitin</t>
+  </si>
+  <si>
+    <t>matchanitin201ME233</t>
+  </si>
+  <si>
+    <t>Swathi Ramesh</t>
+  </si>
+  <si>
+    <t>201ME258</t>
+  </si>
+  <si>
+    <t>swathiramesh</t>
+  </si>
+  <si>
+    <t>swathiramesh201ME258</t>
+  </si>
+  <si>
+    <t>Tushar Jyoti Sahariah</t>
+  </si>
+  <si>
+    <t>201ME259</t>
+  </si>
+  <si>
+    <t>tusharsahariah</t>
+  </si>
+  <si>
+    <t>tusharsahariah201ME259</t>
+  </si>
+  <si>
+    <t>Sai Sreenivas K</t>
+  </si>
+  <si>
+    <t>201ME348</t>
+  </si>
+  <si>
+    <t>saik</t>
+  </si>
+  <si>
+    <t>saik201ME348</t>
   </si>
   <si>
     <t>Om Thakur</t>
@@ -1099,160 +823,28 @@
     <t>omthakur201ME360</t>
   </si>
   <si>
-    <t>PIYUSH DUBEY</t>
-  </si>
-  <si>
-    <t>201ME242</t>
-  </si>
-  <si>
-    <t>piyushdubey</t>
-  </si>
-  <si>
-    <t>piyushdubey201ME242</t>
-  </si>
-  <si>
-    <t>Rehan</t>
-  </si>
-  <si>
-    <t>201ME247</t>
-  </si>
-  <si>
-    <t>rehan</t>
-  </si>
-  <si>
-    <t>rehan201ME247</t>
-  </si>
-  <si>
-    <t>Shaik Dilshad Begum</t>
-  </si>
-  <si>
-    <t>201ME151</t>
-  </si>
-  <si>
-    <t>shaikbegum</t>
-  </si>
-  <si>
-    <t>shaikbegum201ME151</t>
-  </si>
-  <si>
-    <t>Shivavasthan D</t>
-  </si>
-  <si>
-    <t>201me154</t>
-  </si>
-  <si>
-    <t>shivavasthand</t>
-  </si>
-  <si>
-    <t>shivavasthand201me154</t>
-  </si>
-  <si>
-    <t>Tushar Jyoti Sahariah</t>
-  </si>
-  <si>
-    <t>201ME259</t>
-  </si>
-  <si>
-    <t>tusharsahariah</t>
-  </si>
-  <si>
-    <t>tusharsahariah201ME259</t>
-  </si>
-  <si>
-    <t>Abel George</t>
-  </si>
-  <si>
-    <t>201CV101</t>
-  </si>
-  <si>
-    <t>abelgeorge</t>
-  </si>
-  <si>
-    <t>abelgeorge201CV101</t>
-  </si>
-  <si>
-    <t>Anagha Dileep</t>
-  </si>
-  <si>
-    <t>201CV207</t>
-  </si>
-  <si>
-    <t>anaghadileep</t>
-  </si>
-  <si>
-    <t>anaghadileep201CV207</t>
-  </si>
-  <si>
-    <t>Andrea Thomas</t>
-  </si>
-  <si>
-    <t>201CV108</t>
-  </si>
-  <si>
-    <t>andreathomas</t>
-  </si>
-  <si>
-    <t>andreathomas201CV108</t>
-  </si>
-  <si>
-    <t>Gopika  Sasidharan</t>
-  </si>
-  <si>
-    <t>201CV119</t>
-  </si>
-  <si>
-    <t>gopikasasidharan</t>
-  </si>
-  <si>
-    <t>gopikasasidharan201CV119</t>
-  </si>
-  <si>
-    <t>Kaushal Nayak</t>
-  </si>
-  <si>
-    <t>201cv126</t>
-  </si>
-  <si>
-    <t>kaushalnayak</t>
-  </si>
-  <si>
-    <t>kaushalnayak201cv126</t>
-  </si>
-  <si>
-    <t>Pushpendra Rajak</t>
-  </si>
-  <si>
-    <t>201CV241</t>
-  </si>
-  <si>
-    <t>pushpendrarajak</t>
-  </si>
-  <si>
-    <t>pushpendrarajak201CV241</t>
-  </si>
-  <si>
-    <t>Rohan Sorathiya</t>
-  </si>
-  <si>
-    <t>201cv244</t>
-  </si>
-  <si>
-    <t>rohansorathiya</t>
-  </si>
-  <si>
-    <t>rohansorathiya201cv244</t>
-  </si>
-  <si>
-    <t>shashank pandey</t>
-  </si>
-  <si>
-    <t>201cv150</t>
-  </si>
-  <si>
-    <t>shashankpandey</t>
-  </si>
-  <si>
-    <t>shashankpandey201cv150</t>
+    <t>Vamshik M</t>
+  </si>
+  <si>
+    <t>201ME364</t>
+  </si>
+  <si>
+    <t>vamshikm</t>
+  </si>
+  <si>
+    <t>vamshikm201ME364</t>
+  </si>
+  <si>
+    <t>Abhigyan Pathak</t>
+  </si>
+  <si>
+    <t>201MN002</t>
+  </si>
+  <si>
+    <t>abhigyanpathak</t>
+  </si>
+  <si>
+    <t>abhigyanpathak201MN002</t>
   </si>
   <si>
     <t>Dornala Seetha Maha Lakshmi</t>
@@ -1267,18 +859,6 @@
     <t>dornalalakshmi201MN020</t>
   </si>
   <si>
-    <t>Jitin Viji Mandokara</t>
-  </si>
-  <si>
-    <t>201CH027</t>
-  </si>
-  <si>
-    <t>jitinmandokara</t>
-  </si>
-  <si>
-    <t>jitinmandokara201CH027</t>
-  </si>
-  <si>
     <t>N Hari Krishna</t>
   </si>
   <si>
@@ -1291,301 +871,2473 @@
     <t>nkrishna201MN035</t>
   </si>
   <si>
-    <t>Nithila Cariappa</t>
-  </si>
-  <si>
-    <t>201CH041</t>
-  </si>
-  <si>
-    <t>nithilacariappa</t>
-  </si>
-  <si>
-    <t>nithilacariappa201CH041</t>
-  </si>
-  <si>
-    <t>Praneeth S</t>
-  </si>
-  <si>
-    <t>201CV138</t>
-  </si>
-  <si>
-    <t>praneeths</t>
-  </si>
-  <si>
-    <t>praneeths201CV138</t>
-  </si>
-  <si>
-    <t>Radhika Rathi</t>
-  </si>
-  <si>
-    <t>201CH043</t>
-  </si>
-  <si>
-    <t>radhikarathi</t>
-  </si>
-  <si>
-    <t>radhikarathi201CH043</t>
-  </si>
-  <si>
-    <t>Soumyakanta Sahoo</t>
-  </si>
-  <si>
-    <t>201CH053</t>
-  </si>
-  <si>
-    <t>soumyakantasahoo</t>
-  </si>
-  <si>
-    <t>soumyakantasahoo201CH053</t>
-  </si>
-  <si>
-    <t>Abhigyan Pathak</t>
-  </si>
-  <si>
-    <t>201MN002</t>
-  </si>
-  <si>
-    <t>abhigyanpathak</t>
-  </si>
-  <si>
-    <t>abhigyanpathak201MN002</t>
-  </si>
-  <si>
-    <t>adhith</t>
-  </si>
-  <si>
-    <t>201CS104</t>
-  </si>
-  <si>
-    <t>adhith201CS104</t>
-  </si>
-  <si>
-    <t>Akshat Raj Singh</t>
-  </si>
-  <si>
-    <t>201CH064</t>
-  </si>
-  <si>
-    <t>akshatsingh</t>
-  </si>
-  <si>
-    <t>akshatsingh201CH064</t>
-  </si>
-  <si>
-    <t>Arunachalam Solayappan</t>
-  </si>
-  <si>
-    <t>201EE158</t>
-  </si>
-  <si>
-    <t>arunachalamsolayappan</t>
-  </si>
-  <si>
-    <t>arunachalamsolayappan201EE158</t>
-  </si>
-  <si>
-    <t>Deepam Damu Naik</t>
-  </si>
-  <si>
-    <t>201CS169</t>
-  </si>
-  <si>
-    <t>deepamnaik</t>
-  </si>
-  <si>
-    <t>deepamnaik201CS169</t>
-  </si>
-  <si>
-    <t>Harsha Satija</t>
-  </si>
-  <si>
-    <t>201MT020</t>
-  </si>
-  <si>
-    <t>harshasatija</t>
-  </si>
-  <si>
-    <t>harshasatija201MT020</t>
-  </si>
-  <si>
-    <t>MATCHA NITIN</t>
-  </si>
-  <si>
-    <t>201ME233</t>
-  </si>
-  <si>
-    <t>matchanitin</t>
-  </si>
-  <si>
-    <t>matchanitin201ME233</t>
-  </si>
-  <si>
-    <t>ojas agrawal</t>
-  </si>
-  <si>
-    <t>201CH042</t>
-  </si>
-  <si>
-    <t>ojasagrawal</t>
-  </si>
-  <si>
-    <t>ojasagrawal201CH042</t>
-  </si>
-  <si>
-    <t>Adarsh Kishore</t>
-  </si>
-  <si>
-    <t>201IT103</t>
-  </si>
-  <si>
-    <t>adarshkishore</t>
-  </si>
-  <si>
-    <t>adarshkishore201IT103</t>
-  </si>
-  <si>
-    <t>Chandini Rongali</t>
-  </si>
-  <si>
-    <t>201CS115</t>
-  </si>
-  <si>
-    <t>chandinirongali</t>
-  </si>
-  <si>
-    <t>chandinirongali201CS115</t>
-  </si>
-  <si>
-    <t>Malvika Koushik</t>
-  </si>
-  <si>
-    <t>201IT134</t>
-  </si>
-  <si>
-    <t>malvikakoushik</t>
-  </si>
-  <si>
-    <t>malvikakoushik201IT134</t>
-  </si>
-  <si>
-    <t>Marthi. N. V. S. Sri. Harsha</t>
-  </si>
-  <si>
-    <t>201EE131</t>
-  </si>
-  <si>
-    <t>marthi.harsha</t>
-  </si>
-  <si>
-    <t>marthi.harsha201EE131</t>
-  </si>
-  <si>
-    <t>Nihal R</t>
-  </si>
-  <si>
-    <t>201ME138</t>
-  </si>
-  <si>
-    <t>nihalr</t>
-  </si>
-  <si>
-    <t>nihalr201ME138</t>
-  </si>
-  <si>
-    <t>Prathamesh Dongritot</t>
-  </si>
-  <si>
-    <t>201cs242</t>
-  </si>
-  <si>
-    <t>prathameshdongritot</t>
-  </si>
-  <si>
-    <t>prathameshdongritot201cs242</t>
-  </si>
-  <si>
-    <t>Priyansh Patidar</t>
-  </si>
-  <si>
-    <t>201CS144</t>
-  </si>
-  <si>
-    <t>priyanshpatidar</t>
-  </si>
-  <si>
-    <t>priyanshpatidar201CS144</t>
-  </si>
-  <si>
-    <t>Roshan Gupta</t>
-  </si>
-  <si>
-    <t>201EC156</t>
-  </si>
-  <si>
-    <t>roshangupta</t>
-  </si>
-  <si>
-    <t>roshangupta201EC156</t>
-  </si>
-  <si>
-    <t>S Vishnu Sai</t>
-  </si>
-  <si>
-    <t>201CS160</t>
-  </si>
-  <si>
-    <t>ssai</t>
-  </si>
-  <si>
-    <t>ssai201CS160</t>
-  </si>
-  <si>
-    <t>Saloni Mathur</t>
-  </si>
-  <si>
-    <t>201CV265</t>
-  </si>
-  <si>
-    <t>salonimathur</t>
-  </si>
-  <si>
-    <t>salonimathur201CV265</t>
-  </si>
-  <si>
-    <t>SANKET</t>
-  </si>
-  <si>
-    <t>201IT154</t>
-  </si>
-  <si>
-    <t>sanket</t>
-  </si>
-  <si>
-    <t>sanket201IT154</t>
-  </si>
-  <si>
-    <t>Shalaka Sankar</t>
-  </si>
-  <si>
-    <t>201IT158</t>
-  </si>
-  <si>
-    <t>shalakasankar</t>
-  </si>
-  <si>
-    <t>shalakasankar201IT158</t>
-  </si>
-  <si>
-    <t>Vanessa Maria Fernandes</t>
-  </si>
-  <si>
-    <t>201IT164</t>
-  </si>
-  <si>
-    <t>vanessafernandes</t>
-  </si>
-  <si>
-    <t>vanessafernandes201IT164</t>
+    <t>Akshara B</t>
+  </si>
+  <si>
+    <t>211AI012</t>
+  </si>
+  <si>
+    <t>aksharab</t>
+  </si>
+  <si>
+    <t>aksharab211AI012</t>
+  </si>
+  <si>
+    <t>Gulshan Goyal</t>
+  </si>
+  <si>
+    <t>211AI017</t>
+  </si>
+  <si>
+    <t>gulshangoyal</t>
+  </si>
+  <si>
+    <t>gulshangoyal211AI017</t>
+  </si>
+  <si>
+    <t>Aanchal Nayak</t>
+  </si>
+  <si>
+    <t>211CH001</t>
+  </si>
+  <si>
+    <t>aanchalnayak</t>
+  </si>
+  <si>
+    <t>aanchalnayak211CH001</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>211CH002</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>abhishek211CH002</t>
+  </si>
+  <si>
+    <t>Amoghavarsha G J</t>
+  </si>
+  <si>
+    <t>211CH004</t>
+  </si>
+  <si>
+    <t>amoghavarshaj</t>
+  </si>
+  <si>
+    <t>amoghavarshaj211CH004</t>
+  </si>
+  <si>
+    <t>Ananya Mondal</t>
+  </si>
+  <si>
+    <t>211CH007</t>
+  </si>
+  <si>
+    <t>ananyamondal</t>
+  </si>
+  <si>
+    <t>ananyamondal211CH007</t>
+  </si>
+  <si>
+    <t>Arjun Junagal</t>
+  </si>
+  <si>
+    <t>211CH009</t>
+  </si>
+  <si>
+    <t>arjunjunagal</t>
+  </si>
+  <si>
+    <t>arjunjunagal211CH009</t>
+  </si>
+  <si>
+    <t>Divyamshu M P</t>
+  </si>
+  <si>
+    <t>211CH020</t>
+  </si>
+  <si>
+    <t>divyamshup</t>
+  </si>
+  <si>
+    <t>divyamshup211CH020</t>
+  </si>
+  <si>
+    <t>Haridarshan N</t>
+  </si>
+  <si>
+    <t>211CH025</t>
+  </si>
+  <si>
+    <t>haridarshann</t>
+  </si>
+  <si>
+    <t>haridarshann211CH025</t>
+  </si>
+  <si>
+    <t>Shreyansh Das</t>
+  </si>
+  <si>
+    <t>211CH053</t>
+  </si>
+  <si>
+    <t>shreyanshdas</t>
+  </si>
+  <si>
+    <t>shreyanshdas211CH053</t>
+  </si>
+  <si>
+    <t>Akul Arora</t>
+  </si>
+  <si>
+    <t>211CS103</t>
+  </si>
+  <si>
+    <t>akularora</t>
+  </si>
+  <si>
+    <t>akularora211CS103</t>
+  </si>
+  <si>
+    <t>Chaitra S</t>
+  </si>
+  <si>
+    <t>211CS112</t>
+  </si>
+  <si>
+    <t>chaitras</t>
+  </si>
+  <si>
+    <t>chaitras211CS112</t>
+  </si>
+  <si>
+    <t>Rohith Shinoj Kumar</t>
+  </si>
+  <si>
+    <t>211CS244</t>
+  </si>
+  <si>
+    <t>rohithkumar</t>
+  </si>
+  <si>
+    <t>rohithkumar211CS244</t>
+  </si>
+  <si>
+    <t>Sujan S</t>
+  </si>
+  <si>
+    <t>211CS260</t>
+  </si>
+  <si>
+    <t>sujans</t>
+  </si>
+  <si>
+    <t>sujans211CS260</t>
+  </si>
+  <si>
+    <t>K Lavanya</t>
+  </si>
+  <si>
+    <t>211CV122</t>
+  </si>
+  <si>
+    <t>klavanya</t>
+  </si>
+  <si>
+    <t>klavanya211CV122</t>
+  </si>
+  <si>
+    <t>Kaveri Harakuni</t>
+  </si>
+  <si>
+    <t>211CV124</t>
+  </si>
+  <si>
+    <t>kaveriharakuni</t>
+  </si>
+  <si>
+    <t>kaveriharakuni211CV124</t>
+  </si>
+  <si>
+    <t>Siddhi Parkar</t>
+  </si>
+  <si>
+    <t>211CV135</t>
+  </si>
+  <si>
+    <t>siddhiparkar</t>
+  </si>
+  <si>
+    <t>siddhiparkar211CV135</t>
+  </si>
+  <si>
+    <t>Prateek Rajput</t>
+  </si>
+  <si>
+    <t>211CV138</t>
+  </si>
+  <si>
+    <t>prateekrajput</t>
+  </si>
+  <si>
+    <t>prateekrajput211CV138</t>
+  </si>
+  <si>
+    <t>Raghav Kirkol</t>
+  </si>
+  <si>
+    <t>211CV140</t>
+  </si>
+  <si>
+    <t>raghavkirkol</t>
+  </si>
+  <si>
+    <t>raghavkirkol211CV140</t>
+  </si>
+  <si>
+    <t>Siddh Shetty</t>
+  </si>
+  <si>
+    <t>211CV148</t>
+  </si>
+  <si>
+    <t>siddhshetty</t>
+  </si>
+  <si>
+    <t>siddhshetty211CV148</t>
+  </si>
+  <si>
+    <t>Alfaiz Shaikh</t>
+  </si>
+  <si>
+    <t>211CV205</t>
+  </si>
+  <si>
+    <t>alfaizshaikh</t>
+  </si>
+  <si>
+    <t>alfaizshaikh211CV205</t>
+  </si>
+  <si>
+    <t>Hari Sharan</t>
+  </si>
+  <si>
+    <t>211CV221</t>
+  </si>
+  <si>
+    <t>harisharan</t>
+  </si>
+  <si>
+    <t>harisharan211CV221</t>
+  </si>
+  <si>
+    <t>Hemanth Somanna</t>
+  </si>
+  <si>
+    <t>211CV222</t>
+  </si>
+  <si>
+    <t>hemanthsomanna</t>
+  </si>
+  <si>
+    <t>hemanthsomanna211CV222</t>
+  </si>
+  <si>
+    <t>Himanshu Das</t>
+  </si>
+  <si>
+    <t>211CV223</t>
+  </si>
+  <si>
+    <t>himanshudas</t>
+  </si>
+  <si>
+    <t>himanshudas211CV223</t>
+  </si>
+  <si>
+    <t>Piyush Kumar Rauniyar</t>
+  </si>
+  <si>
+    <t>211CV237</t>
+  </si>
+  <si>
+    <t>piyushrauniyar</t>
+  </si>
+  <si>
+    <t>piyushrauniyar211CV237</t>
+  </si>
+  <si>
+    <t>Priyanshu Sharma</t>
+  </si>
+  <si>
+    <t>211CV240</t>
+  </si>
+  <si>
+    <t>priyanshusharma</t>
+  </si>
+  <si>
+    <t>priyanshusharma211CV240</t>
+  </si>
+  <si>
+    <t>Vibhanshu vishal</t>
+  </si>
+  <si>
+    <t>211CV253</t>
+  </si>
+  <si>
+    <t>vibhanshuvishal</t>
+  </si>
+  <si>
+    <t>vibhanshuvishal211CV253</t>
+  </si>
+  <si>
+    <t>Yashas R S</t>
+  </si>
+  <si>
+    <t>211CV256</t>
+  </si>
+  <si>
+    <t>yashass</t>
+  </si>
+  <si>
+    <t>yashass211CV256</t>
+  </si>
+  <si>
+    <t>Lukeshwar</t>
+  </si>
+  <si>
+    <t>211CV299</t>
+  </si>
+  <si>
+    <t>lukeshwar</t>
+  </si>
+  <si>
+    <t>lukeshwar211CV299</t>
+  </si>
+  <si>
+    <t>Arjun S Deginal</t>
+  </si>
+  <si>
+    <t>211EC105</t>
+  </si>
+  <si>
+    <t>arjundeginal</t>
+  </si>
+  <si>
+    <t>arjundeginal211EC105</t>
+  </si>
+  <si>
+    <t>Chandan Kumar</t>
+  </si>
+  <si>
+    <t>211EC108</t>
+  </si>
+  <si>
+    <t>chandankumar</t>
+  </si>
+  <si>
+    <t>chandankumar211EC108</t>
+  </si>
+  <si>
+    <t>Chetan Maheshwari</t>
+  </si>
+  <si>
+    <t>211EC110</t>
+  </si>
+  <si>
+    <t>chetanmaheshwari</t>
+  </si>
+  <si>
+    <t>chetanmaheshwari211EC110</t>
+  </si>
+  <si>
+    <t>Nandana Shashi</t>
+  </si>
+  <si>
+    <t>211EC129</t>
+  </si>
+  <si>
+    <t>nandanashashi</t>
+  </si>
+  <si>
+    <t>nandanashashi211EC129</t>
+  </si>
+  <si>
+    <t>Reuben Silveira</t>
+  </si>
+  <si>
+    <t>211EC139</t>
+  </si>
+  <si>
+    <t>reubensilveira</t>
+  </si>
+  <si>
+    <t>reubensilveira211EC139</t>
+  </si>
+  <si>
+    <t>Sugavanam Senthil</t>
+  </si>
+  <si>
+    <t>211EC152</t>
+  </si>
+  <si>
+    <t>sugavanamsenthil</t>
+  </si>
+  <si>
+    <t>sugavanamsenthil211EC152</t>
+  </si>
+  <si>
+    <t>YASH MALVE</t>
+  </si>
+  <si>
+    <t>211EC166</t>
+  </si>
+  <si>
+    <t>yashmalve</t>
+  </si>
+  <si>
+    <t>yashmalve211EC166</t>
+  </si>
+  <si>
+    <t>Aakash Reddy R V</t>
+  </si>
+  <si>
+    <t>211EC201</t>
+  </si>
+  <si>
+    <t>aakashv</t>
+  </si>
+  <si>
+    <t>aakashv211EC201</t>
+  </si>
+  <si>
+    <t>Divyangana Chandra</t>
+  </si>
+  <si>
+    <t>211EC216</t>
+  </si>
+  <si>
+    <t>divyanganachandra</t>
+  </si>
+  <si>
+    <t>divyanganachandra211EC216</t>
+  </si>
+  <si>
+    <t>Vishnu kumar tailor</t>
+  </si>
+  <si>
+    <t>211EC263</t>
+  </si>
+  <si>
+    <t>vishnutailor</t>
+  </si>
+  <si>
+    <t>vishnutailor211EC263</t>
+  </si>
+  <si>
+    <t>Avula Mallishwari</t>
+  </si>
+  <si>
+    <t>211EE111</t>
+  </si>
+  <si>
+    <t>avulamallishwari</t>
+  </si>
+  <si>
+    <t>avulamallishwari211EE111</t>
+  </si>
+  <si>
+    <t>Charan Sai</t>
+  </si>
+  <si>
+    <t>211EE127</t>
+  </si>
+  <si>
+    <t>charansai</t>
+  </si>
+  <si>
+    <t>charansai211EE127</t>
+  </si>
+  <si>
+    <t>Abhay Hubballi</t>
+  </si>
+  <si>
+    <t>211EE201</t>
+  </si>
+  <si>
+    <t>abhayhubballi</t>
+  </si>
+  <si>
+    <t>abhayhubballi211EE201</t>
+  </si>
+  <si>
+    <t>Aditya Singh Chauhan</t>
+  </si>
+  <si>
+    <t>211EE206</t>
+  </si>
+  <si>
+    <t>adityachauhan</t>
+  </si>
+  <si>
+    <t>adityachauhan211EE206</t>
+  </si>
+  <si>
+    <t>Ainesh Sinha</t>
+  </si>
+  <si>
+    <t>211EE207</t>
+  </si>
+  <si>
+    <t>aineshsinha</t>
+  </si>
+  <si>
+    <t>aineshsinha211EE207</t>
+  </si>
+  <si>
+    <t>A Varun Teja</t>
+  </si>
+  <si>
+    <t>211EE210</t>
+  </si>
+  <si>
+    <t>ateja</t>
+  </si>
+  <si>
+    <t>ateja211EE210</t>
+  </si>
+  <si>
+    <t>Ayushmaan Srivastava</t>
+  </si>
+  <si>
+    <t>211EE217</t>
+  </si>
+  <si>
+    <t>ayushmaansrivastava</t>
+  </si>
+  <si>
+    <t>ayushmaansrivastava211EE217</t>
+  </si>
+  <si>
+    <t>Bhaskara Akhila</t>
+  </si>
+  <si>
+    <t>211EE220</t>
+  </si>
+  <si>
+    <t>bhaskaraakhila</t>
+  </si>
+  <si>
+    <t>bhaskaraakhila211EE220</t>
+  </si>
+  <si>
+    <t>Kamaldeep Singh</t>
+  </si>
+  <si>
+    <t>211EE232</t>
+  </si>
+  <si>
+    <t>kamaldeepsingh</t>
+  </si>
+  <si>
+    <t>kamaldeepsingh211EE232</t>
+  </si>
+  <si>
+    <t>Omkar Jungade</t>
+  </si>
+  <si>
+    <t>211EE243</t>
+  </si>
+  <si>
+    <t>omkarjungade</t>
+  </si>
+  <si>
+    <t>omkarjungade211EE243</t>
+  </si>
+  <si>
+    <t>Prabhanshu Kumar</t>
+  </si>
+  <si>
+    <t>211EE246</t>
+  </si>
+  <si>
+    <t>prabhanshukumar</t>
+  </si>
+  <si>
+    <t>prabhanshukumar211EE246</t>
+  </si>
+  <si>
+    <t>Saliq Gowhar Khan</t>
+  </si>
+  <si>
+    <t>211EE250</t>
+  </si>
+  <si>
+    <t>saliqkhan</t>
+  </si>
+  <si>
+    <t>saliqkhan211EE250</t>
+  </si>
+  <si>
+    <t>Garvit Goyal</t>
+  </si>
+  <si>
+    <t>211IT021</t>
+  </si>
+  <si>
+    <t>garvitgoyal</t>
+  </si>
+  <si>
+    <t>garvitgoyal211IT021</t>
+  </si>
+  <si>
+    <t>Kushangi Sharma</t>
+  </si>
+  <si>
+    <t>211IT036</t>
+  </si>
+  <si>
+    <t>kushangisharma</t>
+  </si>
+  <si>
+    <t>kushangisharma211IT036</t>
+  </si>
+  <si>
+    <t>Sachin Prasanna</t>
+  </si>
+  <si>
+    <t>211IT058</t>
+  </si>
+  <si>
+    <t>sachinprasanna</t>
+  </si>
+  <si>
+    <t>sachinprasanna211IT058</t>
+  </si>
+  <si>
+    <t>Pranav Salunkhe</t>
+  </si>
+  <si>
+    <t>211IT059</t>
+  </si>
+  <si>
+    <t>pranavsalunkhe</t>
+  </si>
+  <si>
+    <t>pranavsalunkhe211IT059</t>
+  </si>
+  <si>
+    <t>Siddharth Kelkar</t>
+  </si>
+  <si>
+    <t>211IT067</t>
+  </si>
+  <si>
+    <t>siddharthkelkar</t>
+  </si>
+  <si>
+    <t>siddharthkelkar211IT067</t>
+  </si>
+  <si>
+    <t>Sudarshan Zunja</t>
+  </si>
+  <si>
+    <t>211IT072</t>
+  </si>
+  <si>
+    <t>sudarshanzunja</t>
+  </si>
+  <si>
+    <t>sudarshanzunja211IT072</t>
+  </si>
+  <si>
+    <t>Akhil Alluri</t>
+  </si>
+  <si>
+    <t>211ME105</t>
+  </si>
+  <si>
+    <t>akhilalluri</t>
+  </si>
+  <si>
+    <t>akhilalluri211ME105</t>
+  </si>
+  <si>
+    <t>Medagam Sri Madhurima</t>
+  </si>
+  <si>
+    <t>211ME128</t>
+  </si>
+  <si>
+    <t>medagammadhurima</t>
+  </si>
+  <si>
+    <t>medagammadhurima211ME128</t>
+  </si>
+  <si>
+    <t>Shashi Kiran</t>
+  </si>
+  <si>
+    <t>211ME131</t>
+  </si>
+  <si>
+    <t>shashikiran</t>
+  </si>
+  <si>
+    <t>shashikiran211ME131</t>
+  </si>
+  <si>
+    <t>Ojusvi</t>
+  </si>
+  <si>
+    <t>211ME139</t>
+  </si>
+  <si>
+    <t>ojusvi</t>
+  </si>
+  <si>
+    <t>ojusvi211ME139</t>
+  </si>
+  <si>
+    <t>sidhant shekhar jha</t>
+  </si>
+  <si>
+    <t>211ME153</t>
+  </si>
+  <si>
+    <t>sidhantjha</t>
+  </si>
+  <si>
+    <t>sidhantjha211ME153</t>
+  </si>
+  <si>
+    <t>Isha Prabhu</t>
+  </si>
+  <si>
+    <t>211ME218</t>
+  </si>
+  <si>
+    <t>ishaprabhu</t>
+  </si>
+  <si>
+    <t>ishaprabhu211ME218</t>
+  </si>
+  <si>
+    <t>Maramreddy Gayathri Reddy</t>
+  </si>
+  <si>
+    <t>211ME224</t>
+  </si>
+  <si>
+    <t>maramreddyreddy</t>
+  </si>
+  <si>
+    <t>maramreddyreddy211ME224</t>
+  </si>
+  <si>
+    <t>Meghana J Iyengar</t>
+  </si>
+  <si>
+    <t>211ME225</t>
+  </si>
+  <si>
+    <t>meghanaiyengar</t>
+  </si>
+  <si>
+    <t>meghanaiyengar211ME225</t>
+  </si>
+  <si>
+    <t>Nived Philip Thomas</t>
+  </si>
+  <si>
+    <t>211ME232</t>
+  </si>
+  <si>
+    <t>nivedthomas</t>
+  </si>
+  <si>
+    <t>nivedthomas211ME232</t>
+  </si>
+  <si>
+    <t>Shradha Harris</t>
+  </si>
+  <si>
+    <t>211ME250</t>
+  </si>
+  <si>
+    <t>shradhaharris</t>
+  </si>
+  <si>
+    <t>shradhaharris211ME250</t>
+  </si>
+  <si>
+    <t>Y.Sucharitha</t>
+  </si>
+  <si>
+    <t>211ME260</t>
+  </si>
+  <si>
+    <t>y.sucharitha</t>
+  </si>
+  <si>
+    <t>y.sucharitha211ME260</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>211ME308</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>aman211ME308</t>
+  </si>
+  <si>
+    <t>RAKSHITH S</t>
+  </si>
+  <si>
+    <t>211ME340</t>
+  </si>
+  <si>
+    <t>rakshiths</t>
+  </si>
+  <si>
+    <t>rakshiths211ME340</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>211ME341</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>rohan211ME341</t>
+  </si>
+  <si>
+    <t>Shivam Tewari</t>
+  </si>
+  <si>
+    <t>211ME345</t>
+  </si>
+  <si>
+    <t>shivamtewari</t>
+  </si>
+  <si>
+    <t>shivamtewari211ME345</t>
+  </si>
+  <si>
+    <t>Swastik</t>
+  </si>
+  <si>
+    <t>211ME351</t>
+  </si>
+  <si>
+    <t>swastik</t>
+  </si>
+  <si>
+    <t>swastik211ME351</t>
+  </si>
+  <si>
+    <t>Urvesh Parmar</t>
+  </si>
+  <si>
+    <t>211ME356</t>
+  </si>
+  <si>
+    <t>urveshparmar</t>
+  </si>
+  <si>
+    <t>urveshparmar211ME356</t>
+  </si>
+  <si>
+    <t>Ayush Pandey</t>
+  </si>
+  <si>
+    <t>211MN006</t>
+  </si>
+  <si>
+    <t>ayushpandey</t>
+  </si>
+  <si>
+    <t>ayushpandey211MN006</t>
+  </si>
+  <si>
+    <t>Soumi Ganguly</t>
+  </si>
+  <si>
+    <t>211MN050</t>
+  </si>
+  <si>
+    <t>soumiganguly</t>
+  </si>
+  <si>
+    <t>soumiganguly211MN050</t>
+  </si>
+  <si>
+    <t>Hritik Kapoor</t>
+  </si>
+  <si>
+    <t>211MT018</t>
+  </si>
+  <si>
+    <t>hritikkapoor</t>
+  </si>
+  <si>
+    <t>hritikkapoor211MT018</t>
+  </si>
+  <si>
+    <t>Mukund Loya</t>
+  </si>
+  <si>
+    <t>211MT031</t>
+  </si>
+  <si>
+    <t>mukundloya</t>
+  </si>
+  <si>
+    <t>mukundloya211MT031</t>
+  </si>
+  <si>
+    <t>Swati Agarwal</t>
+  </si>
+  <si>
+    <t>214CA060</t>
+  </si>
+  <si>
+    <t>swatiagarwal</t>
+  </si>
+  <si>
+    <t>swatiagarwal214CA060</t>
+  </si>
+  <si>
+    <t>Abhishek Boranni</t>
+  </si>
+  <si>
+    <t>221AI003</t>
+  </si>
+  <si>
+    <t>abhishekboranni</t>
+  </si>
+  <si>
+    <t>abhishekboranni221AI003</t>
+  </si>
+  <si>
+    <t>Rohil Sharma</t>
+  </si>
+  <si>
+    <t>221AI033</t>
+  </si>
+  <si>
+    <t>rohilsharma</t>
+  </si>
+  <si>
+    <t>rohilsharma221AI033</t>
+  </si>
+  <si>
+    <t>Aditya Bisen</t>
+  </si>
+  <si>
+    <t>221CH002</t>
+  </si>
+  <si>
+    <t>adityabisen</t>
+  </si>
+  <si>
+    <t>adityabisen221CH002</t>
+  </si>
+  <si>
+    <t>Azmeera</t>
+  </si>
+  <si>
+    <t>221CH011</t>
+  </si>
+  <si>
+    <t>azmeera</t>
+  </si>
+  <si>
+    <t>azmeera221CH011</t>
+  </si>
+  <si>
+    <t>B. Hema Swaroop</t>
+  </si>
+  <si>
+    <t>221CH013</t>
+  </si>
+  <si>
+    <t>b.swaroop</t>
+  </si>
+  <si>
+    <t>b.swaroop221CH013</t>
+  </si>
+  <si>
+    <t>Yash Desai</t>
+  </si>
+  <si>
+    <t>221CH015</t>
+  </si>
+  <si>
+    <t>yashdesai</t>
+  </si>
+  <si>
+    <t>yashdesai221CH015</t>
+  </si>
+  <si>
+    <t>DHANUSH T</t>
+  </si>
+  <si>
+    <t>221CH016</t>
+  </si>
+  <si>
+    <t>dhanusht</t>
+  </si>
+  <si>
+    <t>dhanusht221CH016</t>
+  </si>
+  <si>
+    <t>Divyanshu Ratnakar</t>
+  </si>
+  <si>
+    <t>221CH018</t>
+  </si>
+  <si>
+    <t>divyanshuratnakar</t>
+  </si>
+  <si>
+    <t>divyanshuratnakar221CH018</t>
+  </si>
+  <si>
+    <t>Harsh Pratap Singh</t>
+  </si>
+  <si>
+    <t>221CH022</t>
+  </si>
+  <si>
+    <t>harshsingh</t>
+  </si>
+  <si>
+    <t>harshsingh221CH022</t>
+  </si>
+  <si>
+    <t>Hritik sarraf</t>
+  </si>
+  <si>
+    <t>221CH023</t>
+  </si>
+  <si>
+    <t>hritiksarraf</t>
+  </si>
+  <si>
+    <t>hritiksarraf221CH023</t>
+  </si>
+  <si>
+    <t>Mohammad Adil</t>
+  </si>
+  <si>
+    <t>221CH032</t>
+  </si>
+  <si>
+    <t>mohammadadil</t>
+  </si>
+  <si>
+    <t>mohammadadil221CH032</t>
+  </si>
+  <si>
+    <t>Mohammed Shadab Alam</t>
+  </si>
+  <si>
+    <t>221CH033</t>
+  </si>
+  <si>
+    <t>mohammedalam</t>
+  </si>
+  <si>
+    <t>mohammedalam221CH033</t>
+  </si>
+  <si>
+    <t>Prasanna R T</t>
+  </si>
+  <si>
+    <t>221CH038</t>
+  </si>
+  <si>
+    <t>prasannat</t>
+  </si>
+  <si>
+    <t>prasannat221CH038</t>
+  </si>
+  <si>
+    <t>Priyanshu Kumar</t>
+  </si>
+  <si>
+    <t>221CH040</t>
+  </si>
+  <si>
+    <t>priyanshukumar</t>
+  </si>
+  <si>
+    <t>priyanshukumar221CH040</t>
+  </si>
+  <si>
+    <t>Rashmi K Murthy</t>
+  </si>
+  <si>
+    <t>221CH045</t>
+  </si>
+  <si>
+    <t>rashmimurthy</t>
+  </si>
+  <si>
+    <t>rashmimurthy221CH045</t>
+  </si>
+  <si>
+    <t>Adarsh Ranjan</t>
+  </si>
+  <si>
+    <t>221CS103</t>
+  </si>
+  <si>
+    <t>adarshranjan</t>
+  </si>
+  <si>
+    <t>adarshranjan221CS103</t>
+  </si>
+  <si>
+    <t>Anumola Yoga Anil Kumar</t>
+  </si>
+  <si>
+    <t>221CS110</t>
+  </si>
+  <si>
+    <t>anumolakumar</t>
+  </si>
+  <si>
+    <t>anumolakumar221CS110</t>
+  </si>
+  <si>
+    <t>Jubitha Sri</t>
+  </si>
+  <si>
+    <t>221CS120</t>
+  </si>
+  <si>
+    <t>jubithasri</t>
+  </si>
+  <si>
+    <t>jubithasri221CS120</t>
+  </si>
+  <si>
+    <t>Rahul Ganta</t>
+  </si>
+  <si>
+    <t>221CS122</t>
+  </si>
+  <si>
+    <t>rahulganta</t>
+  </si>
+  <si>
+    <t>rahulganta221CS122</t>
+  </si>
+  <si>
+    <t>Harsh Gupta</t>
+  </si>
+  <si>
+    <t>221CS128</t>
+  </si>
+  <si>
+    <t>harshgupta</t>
+  </si>
+  <si>
+    <t>harshgupta221CS128</t>
+  </si>
+  <si>
+    <t>P Devi Deepika</t>
+  </si>
+  <si>
+    <t>221CS138</t>
+  </si>
+  <si>
+    <t>pdeepika</t>
+  </si>
+  <si>
+    <t>pdeepika221CS138</t>
+  </si>
+  <si>
+    <t>Aditya Goyal</t>
+  </si>
+  <si>
+    <t>221CS202</t>
+  </si>
+  <si>
+    <t>adityagoyal</t>
+  </si>
+  <si>
+    <t>adityagoyal221CS202</t>
+  </si>
+  <si>
+    <t>Ansh Vivek Malhotra</t>
+  </si>
+  <si>
+    <t>221CS209</t>
+  </si>
+  <si>
+    <t>anshmalhotra</t>
+  </si>
+  <si>
+    <t>anshmalhotra221CS209</t>
+  </si>
+  <si>
+    <t>Bhagwat Poorva Milind</t>
+  </si>
+  <si>
+    <t>221CS212</t>
+  </si>
+  <si>
+    <t>bhagwatmilind</t>
+  </si>
+  <si>
+    <t>bhagwatmilind221CS212</t>
+  </si>
+  <si>
+    <t>Harsha Gundapalli</t>
+  </si>
+  <si>
+    <t>221CS222</t>
+  </si>
+  <si>
+    <t>harshagundapalli</t>
+  </si>
+  <si>
+    <t>harshagundapalli221CS222</t>
+  </si>
+  <si>
+    <t>Kakarla Naveen Janaki Ram</t>
+  </si>
+  <si>
+    <t>221CS227</t>
+  </si>
+  <si>
+    <t>kakarlaram</t>
+  </si>
+  <si>
+    <t>kakarlaram221CS227</t>
+  </si>
+  <si>
+    <t>Rohit Sunil</t>
+  </si>
+  <si>
+    <t>221CS242</t>
+  </si>
+  <si>
+    <t>rohitsunil</t>
+  </si>
+  <si>
+    <t>rohitsunil221CS242</t>
+  </si>
+  <si>
+    <t>Shreyas Gowda P</t>
+  </si>
+  <si>
+    <t>221CS247</t>
+  </si>
+  <si>
+    <t>shreyasp</t>
+  </si>
+  <si>
+    <t>shreyasp221CS247</t>
+  </si>
+  <si>
+    <t>Vishvendra Singh</t>
+  </si>
+  <si>
+    <t>221CS263</t>
+  </si>
+  <si>
+    <t>vishvendrasingh</t>
+  </si>
+  <si>
+    <t>vishvendrasingh221CS263</t>
+  </si>
+  <si>
+    <t>Adithya M</t>
+  </si>
+  <si>
+    <t>221CV104</t>
+  </si>
+  <si>
+    <t>adithyam</t>
+  </si>
+  <si>
+    <t>adithyam221CV104</t>
+  </si>
+  <si>
+    <t>Gurukiran B S</t>
+  </si>
+  <si>
+    <t>221CV123</t>
+  </si>
+  <si>
+    <t>gurukirans</t>
+  </si>
+  <si>
+    <t>gurukirans221CV123</t>
+  </si>
+  <si>
+    <t>Likith M</t>
+  </si>
+  <si>
+    <t>221CV129</t>
+  </si>
+  <si>
+    <t>likithm</t>
+  </si>
+  <si>
+    <t>likithm221CV129</t>
+  </si>
+  <si>
+    <t>Navaneet K Bammanni</t>
+  </si>
+  <si>
+    <t>221CV132</t>
+  </si>
+  <si>
+    <t>navaneetbammanni</t>
+  </si>
+  <si>
+    <t>navaneetbammanni221CV132</t>
+  </si>
+  <si>
+    <t>Ponnolu Sanjeeva Thanmaiee</t>
+  </si>
+  <si>
+    <t>221CV136</t>
+  </si>
+  <si>
+    <t>ponnoluthanmaiee</t>
+  </si>
+  <si>
+    <t>ponnoluthanmaiee221CV136</t>
+  </si>
+  <si>
+    <t>Riya Aji</t>
+  </si>
+  <si>
+    <t>221CV139</t>
+  </si>
+  <si>
+    <t>riyaaji</t>
+  </si>
+  <si>
+    <t>riyaaji221CV139</t>
+  </si>
+  <si>
+    <t>CP Shreyas</t>
+  </si>
+  <si>
+    <t>221CV146</t>
+  </si>
+  <si>
+    <t>cpshreyas</t>
+  </si>
+  <si>
+    <t>cpshreyas221CV146</t>
+  </si>
+  <si>
+    <t>Tammisetti Sesha Satwika</t>
+  </si>
+  <si>
+    <t>221CV152</t>
+  </si>
+  <si>
+    <t>tammisettisatwika</t>
+  </si>
+  <si>
+    <t>tammisettisatwika221CV152</t>
+  </si>
+  <si>
+    <t>Jeevotthama Shenoy K</t>
+  </si>
+  <si>
+    <t>221CV224</t>
+  </si>
+  <si>
+    <t>jeevotthamak</t>
+  </si>
+  <si>
+    <t>jeevotthamak221CV224</t>
+  </si>
+  <si>
+    <t>Kannika M Chikkannavar</t>
+  </si>
+  <si>
+    <t>221CV226</t>
+  </si>
+  <si>
+    <t>kannikachikkannavar</t>
+  </si>
+  <si>
+    <t>kannikachikkannavar221CV226</t>
+  </si>
+  <si>
+    <t>Sahil Hinwani</t>
+  </si>
+  <si>
+    <t>221CV240</t>
+  </si>
+  <si>
+    <t>sahilhinwani</t>
+  </si>
+  <si>
+    <t>sahilhinwani221CV240</t>
+  </si>
+  <si>
+    <t>Sai Kiran R K</t>
+  </si>
+  <si>
+    <t>221CV241</t>
+  </si>
+  <si>
+    <t>saik221CV241</t>
+  </si>
+  <si>
+    <t>Shambavi Jha</t>
+  </si>
+  <si>
+    <t>221CV244</t>
+  </si>
+  <si>
+    <t>shambavijha</t>
+  </si>
+  <si>
+    <t>shambavijha221CV244</t>
+  </si>
+  <si>
+    <t>Swapnil Tripathi</t>
+  </si>
+  <si>
+    <t>221CV251</t>
+  </si>
+  <si>
+    <t>swapniltripathi</t>
+  </si>
+  <si>
+    <t>swapniltripathi221CV251</t>
+  </si>
+  <si>
+    <t>Yash Dixit</t>
+  </si>
+  <si>
+    <t>221CV256</t>
+  </si>
+  <si>
+    <t>yashdixit</t>
+  </si>
+  <si>
+    <t>yashdixit221CV256</t>
+  </si>
+  <si>
+    <t>Anushka Mishra</t>
+  </si>
+  <si>
+    <t>221CV257</t>
+  </si>
+  <si>
+    <t>anushkamishra</t>
+  </si>
+  <si>
+    <t>anushkamishra221CV257</t>
+  </si>
+  <si>
+    <t>Mekala Laasica Ram</t>
+  </si>
+  <si>
+    <t>221DS023</t>
+  </si>
+  <si>
+    <t>mekalaram</t>
+  </si>
+  <si>
+    <t>mekalaram221DS023</t>
+  </si>
+  <si>
+    <t>Singampalli Bhargavi</t>
+  </si>
+  <si>
+    <t>221DS029</t>
+  </si>
+  <si>
+    <t>singampallibhargavi</t>
+  </si>
+  <si>
+    <t>singampallibhargavi221DS029</t>
+  </si>
+  <si>
+    <t>Thatavarthi Rupesh Kumar</t>
+  </si>
+  <si>
+    <t>221DS032</t>
+  </si>
+  <si>
+    <t>thatavarthikumar</t>
+  </si>
+  <si>
+    <t>thatavarthikumar221DS032</t>
+  </si>
+  <si>
+    <t>Arjun Singh</t>
+  </si>
+  <si>
+    <t>221EC110</t>
+  </si>
+  <si>
+    <t>arjunsingh</t>
+  </si>
+  <si>
+    <t>arjunsingh221EC110</t>
+  </si>
+  <si>
+    <t>Mahesh Goud</t>
+  </si>
+  <si>
+    <t>221EC111</t>
+  </si>
+  <si>
+    <t>maheshgoud</t>
+  </si>
+  <si>
+    <t>maheshgoud221EC111</t>
+  </si>
+  <si>
+    <t>Linisha R</t>
+  </si>
+  <si>
+    <t>221EC126</t>
+  </si>
+  <si>
+    <t>linishar</t>
+  </si>
+  <si>
+    <t>linishar221EC126</t>
+  </si>
+  <si>
+    <t>Vayun Jain</t>
+  </si>
+  <si>
+    <t>221EC164</t>
+  </si>
+  <si>
+    <t>vayunjain</t>
+  </si>
+  <si>
+    <t>vayunjain221EC164</t>
+  </si>
+  <si>
+    <t>YUVANSANKAR V K</t>
+  </si>
+  <si>
+    <t>221EC166</t>
+  </si>
+  <si>
+    <t>yuvansankark</t>
+  </si>
+  <si>
+    <t>yuvansankark221EC166</t>
+  </si>
+  <si>
+    <t>Amaan Farhan</t>
+  </si>
+  <si>
+    <t>221EC205</t>
+  </si>
+  <si>
+    <t>amaanfarhan</t>
+  </si>
+  <si>
+    <t>amaanfarhan221EC205</t>
+  </si>
+  <si>
+    <t>Pallavi Parage</t>
+  </si>
+  <si>
+    <t>221EC234</t>
+  </si>
+  <si>
+    <t>pallaviparage</t>
+  </si>
+  <si>
+    <t>pallaviparage221EC234</t>
+  </si>
+  <si>
+    <t>Sanket Sudhakar Sakhare</t>
+  </si>
+  <si>
+    <t>221EC248</t>
+  </si>
+  <si>
+    <t>sanketsakhare</t>
+  </si>
+  <si>
+    <t>sanketsakhare221EC248</t>
+  </si>
+  <si>
+    <t>Yashwanth K R</t>
+  </si>
+  <si>
+    <t>221EC264</t>
+  </si>
+  <si>
+    <t>yashwanthr</t>
+  </si>
+  <si>
+    <t>yashwanthr221EC264</t>
+  </si>
+  <si>
+    <t>Anjana T K</t>
+  </si>
+  <si>
+    <t>221EE108</t>
+  </si>
+  <si>
+    <t>anjanak</t>
+  </si>
+  <si>
+    <t>anjanak221EE108</t>
+  </si>
+  <si>
+    <t>Chavan Soham Ashok</t>
+  </si>
+  <si>
+    <t>221EE113</t>
+  </si>
+  <si>
+    <t>chavanashok</t>
+  </si>
+  <si>
+    <t>chavanashok221EE113</t>
+  </si>
+  <si>
+    <t>C. Rushi Ganesh</t>
+  </si>
+  <si>
+    <t>221EE114</t>
+  </si>
+  <si>
+    <t>c.ganesh</t>
+  </si>
+  <si>
+    <t>c.ganesh221EE114</t>
+  </si>
+  <si>
+    <t>Dipankar Deka</t>
+  </si>
+  <si>
+    <t>221EE117</t>
+  </si>
+  <si>
+    <t>dipankardeka</t>
+  </si>
+  <si>
+    <t>dipankardeka221EE117</t>
+  </si>
+  <si>
+    <t>Jinti P Kalita</t>
+  </si>
+  <si>
+    <t>221EE124</t>
+  </si>
+  <si>
+    <t>jintikalita</t>
+  </si>
+  <si>
+    <t>jintikalita221EE124</t>
+  </si>
+  <si>
+    <t>Kalpana Swamy K N</t>
+  </si>
+  <si>
+    <t>221EE125</t>
+  </si>
+  <si>
+    <t>kalpanan</t>
+  </si>
+  <si>
+    <t>kalpanan221EE125</t>
+  </si>
+  <si>
+    <t>Nikhitha Mathew</t>
+  </si>
+  <si>
+    <t>221EE136</t>
+  </si>
+  <si>
+    <t>nikhithamathew</t>
+  </si>
+  <si>
+    <t>nikhithamathew221EE136</t>
+  </si>
+  <si>
+    <t>Janani Nune</t>
+  </si>
+  <si>
+    <t>221EE137</t>
+  </si>
+  <si>
+    <t>jananinune</t>
+  </si>
+  <si>
+    <t>jananinune221EE137</t>
+  </si>
+  <si>
+    <t>Shubhang Chauhan</t>
+  </si>
+  <si>
+    <t>221EE151</t>
+  </si>
+  <si>
+    <t>shubhangchauhan</t>
+  </si>
+  <si>
+    <t>shubhangchauhan221EE151</t>
+  </si>
+  <si>
+    <t>Yangala Sahithi</t>
+  </si>
+  <si>
+    <t>221EE163</t>
+  </si>
+  <si>
+    <t>yangalasahithi</t>
+  </si>
+  <si>
+    <t>yangalasahithi221EE163</t>
+  </si>
+  <si>
+    <t>Abdul Hadi</t>
+  </si>
+  <si>
+    <t>221EE201</t>
+  </si>
+  <si>
+    <t>abdulhadi</t>
+  </si>
+  <si>
+    <t>abdulhadi221EE201</t>
+  </si>
+  <si>
+    <t>Amirul Hasan</t>
+  </si>
+  <si>
+    <t>221EE205</t>
+  </si>
+  <si>
+    <t>amirulhasan</t>
+  </si>
+  <si>
+    <t>amirulhasan221EE205</t>
+  </si>
+  <si>
+    <t>J Sandeep</t>
+  </si>
+  <si>
+    <t>221EE222</t>
+  </si>
+  <si>
+    <t>jsandeep</t>
+  </si>
+  <si>
+    <t>jsandeep221EE222</t>
+  </si>
+  <si>
+    <t>Shaikshavali p</t>
+  </si>
+  <si>
+    <t>221EE245</t>
+  </si>
+  <si>
+    <t>shaikshavalip</t>
+  </si>
+  <si>
+    <t>shaikshavalip221EE245</t>
+  </si>
+  <si>
+    <t>Alapati Harshini</t>
+  </si>
+  <si>
+    <t>221IT006</t>
+  </si>
+  <si>
+    <t>alapatiharshini</t>
+  </si>
+  <si>
+    <t>alapatiharshini221IT006</t>
+  </si>
+  <si>
+    <t>Bhoomika Deep Mahawar</t>
+  </si>
+  <si>
+    <t>221IT018</t>
+  </si>
+  <si>
+    <t>bhoomikamahawar</t>
+  </si>
+  <si>
+    <t>bhoomikamahawar221IT018</t>
+  </si>
+  <si>
+    <t>Kankatala Mahitha</t>
+  </si>
+  <si>
+    <t>221IT036</t>
+  </si>
+  <si>
+    <t>kankatalamahitha</t>
+  </si>
+  <si>
+    <t>kankatalamahitha221IT036</t>
+  </si>
+  <si>
+    <t>Rajmani Pandey</t>
+  </si>
+  <si>
+    <t>221IT053</t>
+  </si>
+  <si>
+    <t>rajmanipandey</t>
+  </si>
+  <si>
+    <t>rajmanipandey221IT053</t>
+  </si>
+  <si>
+    <t>Sonali Kannojiya</t>
+  </si>
+  <si>
+    <t>221IT065</t>
+  </si>
+  <si>
+    <t>sonalikannojiya</t>
+  </si>
+  <si>
+    <t>sonalikannojiya221IT065</t>
+  </si>
+  <si>
+    <t>Suveena Sadashiv</t>
+  </si>
+  <si>
+    <t>221IT070</t>
+  </si>
+  <si>
+    <t>suveenasadashiv</t>
+  </si>
+  <si>
+    <t>suveenasadashiv221IT070</t>
+  </si>
+  <si>
+    <t>Tharlada Durga Tirumala Nischal</t>
+  </si>
+  <si>
+    <t>221IT073</t>
+  </si>
+  <si>
+    <t>tharladanischal</t>
+  </si>
+  <si>
+    <t>tharladanischal221IT073</t>
+  </si>
+  <si>
+    <t>Vanama Bhanu Prakash</t>
+  </si>
+  <si>
+    <t>221IT077</t>
+  </si>
+  <si>
+    <t>vanamaprakash</t>
+  </si>
+  <si>
+    <t>vanamaprakash221IT077</t>
+  </si>
+  <si>
+    <t>Vikas Kaswan</t>
+  </si>
+  <si>
+    <t>221IT078</t>
+  </si>
+  <si>
+    <t>vikaskaswan</t>
+  </si>
+  <si>
+    <t>vikaskaswan221IT078</t>
+  </si>
+  <si>
+    <t>Virri Pranav</t>
+  </si>
+  <si>
+    <t>221IT082</t>
+  </si>
+  <si>
+    <t>virripranav</t>
+  </si>
+  <si>
+    <t>virripranav221IT082</t>
+  </si>
+  <si>
+    <t>Vishwajeet Hanamant Dodyalkar</t>
+  </si>
+  <si>
+    <t>221IT084</t>
+  </si>
+  <si>
+    <t>vishwajeetdodyalkar</t>
+  </si>
+  <si>
+    <t>vishwajeetdodyalkar221IT084</t>
+  </si>
+  <si>
+    <t>Gagandeep N Aralaguppi</t>
+  </si>
+  <si>
+    <t>221ME119</t>
+  </si>
+  <si>
+    <t>gagandeeparalaguppi</t>
+  </si>
+  <si>
+    <t>gagandeeparalaguppi221ME119</t>
+  </si>
+  <si>
+    <t>Yash Hurkat</t>
+  </si>
+  <si>
+    <t>221ME123</t>
+  </si>
+  <si>
+    <t>yashhurkat</t>
+  </si>
+  <si>
+    <t>yashhurkat221ME123</t>
+  </si>
+  <si>
+    <t>Jefrry Thomas Jaison</t>
+  </si>
+  <si>
+    <t>221ME125</t>
+  </si>
+  <si>
+    <t>jefrryjaison</t>
+  </si>
+  <si>
+    <t>jefrryjaison221ME125</t>
+  </si>
+  <si>
+    <t>L Raghunaik</t>
+  </si>
+  <si>
+    <t>221ME131</t>
+  </si>
+  <si>
+    <t>lraghunaik</t>
+  </si>
+  <si>
+    <t>lraghunaik221ME131</t>
+  </si>
+  <si>
+    <t>Nithin S</t>
+  </si>
+  <si>
+    <t>221ME139</t>
+  </si>
+  <si>
+    <t>nithins</t>
+  </si>
+  <si>
+    <t>nithins221ME139</t>
+  </si>
+  <si>
+    <t>Tanishq Arnav Beck</t>
+  </si>
+  <si>
+    <t>221ME156</t>
+  </si>
+  <si>
+    <t>tanishqbeck</t>
+  </si>
+  <si>
+    <t>tanishqbeck221ME156</t>
+  </si>
+  <si>
+    <t>Ajay T S</t>
+  </si>
+  <si>
+    <t>221ME204</t>
+  </si>
+  <si>
+    <t>ajays</t>
+  </si>
+  <si>
+    <t>ajays221ME204</t>
+  </si>
+  <si>
+    <t>Ashlesh Naik</t>
+  </si>
+  <si>
+    <t>221ME208</t>
+  </si>
+  <si>
+    <t>ashleshnaik</t>
+  </si>
+  <si>
+    <t>ashleshnaik221ME208</t>
+  </si>
+  <si>
+    <t>Chinmayi D S</t>
+  </si>
+  <si>
+    <t>221ME213</t>
+  </si>
+  <si>
+    <t>chinmayis</t>
+  </si>
+  <si>
+    <t>chinmayis221ME213</t>
+  </si>
+  <si>
+    <t>Dhruv M N</t>
+  </si>
+  <si>
+    <t>221ME215</t>
+  </si>
+  <si>
+    <t>dhruvn</t>
+  </si>
+  <si>
+    <t>dhruvn221ME215</t>
+  </si>
+  <si>
+    <t>Greeshma P K</t>
+  </si>
+  <si>
+    <t>221ME220</t>
+  </si>
+  <si>
+    <t>greeshmak</t>
+  </si>
+  <si>
+    <t>greeshmak221ME220</t>
+  </si>
+  <si>
+    <t>Juluri Girish</t>
+  </si>
+  <si>
+    <t>221ME224</t>
+  </si>
+  <si>
+    <t>julurigirish</t>
+  </si>
+  <si>
+    <t>julurigirish221ME224</t>
+  </si>
+  <si>
+    <t>Kartik Verma</t>
+  </si>
+  <si>
+    <t>221ME225</t>
+  </si>
+  <si>
+    <t>kartikverma</t>
+  </si>
+  <si>
+    <t>kartikverma221ME225</t>
+  </si>
+  <si>
+    <t>Niharika Rathore</t>
+  </si>
+  <si>
+    <t>221ME237</t>
+  </si>
+  <si>
+    <t>niharikarathore</t>
+  </si>
+  <si>
+    <t>niharikarathore221ME237</t>
+  </si>
+  <si>
+    <t>Phanshikar Saket Sanjay</t>
+  </si>
+  <si>
+    <t>221ME239</t>
+  </si>
+  <si>
+    <t>phanshikarsanjay</t>
+  </si>
+  <si>
+    <t>phanshikarsanjay221ME239</t>
+  </si>
+  <si>
+    <t>Shivakumar V Kannur</t>
+  </si>
+  <si>
+    <t>221ME249</t>
+  </si>
+  <si>
+    <t>shivakumarkannur</t>
+  </si>
+  <si>
+    <t>shivakumarkannur221ME249</t>
+  </si>
+  <si>
+    <t>Batini Ashwini</t>
+  </si>
+  <si>
+    <t>221ME308</t>
+  </si>
+  <si>
+    <t>batiniashwini</t>
+  </si>
+  <si>
+    <t>batiniashwini221ME308</t>
+  </si>
+  <si>
+    <t>Gungun Jain</t>
+  </si>
+  <si>
+    <t>221ME318</t>
+  </si>
+  <si>
+    <t>gungunjain</t>
+  </si>
+  <si>
+    <t>gungunjain221ME318</t>
+  </si>
+  <si>
+    <t>Kumari Aachal</t>
+  </si>
+  <si>
+    <t>221ME327</t>
+  </si>
+  <si>
+    <t>kumariaachal</t>
+  </si>
+  <si>
+    <t>kumariaachal221ME327</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>221ME331</t>
+  </si>
+  <si>
+    <t>manisha</t>
+  </si>
+  <si>
+    <t>manisha221ME331</t>
+  </si>
+  <si>
+    <t>Naisha Kishore</t>
+  </si>
+  <si>
+    <t>221ME333</t>
+  </si>
+  <si>
+    <t>naishakishore</t>
+  </si>
+  <si>
+    <t>naishakishore221ME333</t>
+  </si>
+  <si>
+    <t>R Dharshini</t>
+  </si>
+  <si>
+    <t>221ME340</t>
+  </si>
+  <si>
+    <t>rdharshini</t>
+  </si>
+  <si>
+    <t>rdharshini221ME340</t>
+  </si>
+  <si>
+    <t>Nisarg Rajdeep</t>
+  </si>
+  <si>
+    <t>221ME341</t>
+  </si>
+  <si>
+    <t>nisargrajdeep</t>
+  </si>
+  <si>
+    <t>nisargrajdeep221ME341</t>
+  </si>
+  <si>
+    <t>Shreyas Nageshwar</t>
+  </si>
+  <si>
+    <t>221ME349</t>
+  </si>
+  <si>
+    <t>shreyasnageshwar</t>
+  </si>
+  <si>
+    <t>shreyasnageshwar221ME349</t>
+  </si>
+  <si>
+    <t>Tejas K Raysad</t>
+  </si>
+  <si>
+    <t>221ME356</t>
+  </si>
+  <si>
+    <t>tejasraysad</t>
+  </si>
+  <si>
+    <t>tejasraysad221ME356</t>
+  </si>
+  <si>
+    <t>Deepesh Nagwani</t>
+  </si>
+  <si>
+    <t>221MN020</t>
+  </si>
+  <si>
+    <t>deepeshnagwani</t>
+  </si>
+  <si>
+    <t>deepeshnagwani221MN020</t>
+  </si>
+  <si>
+    <t>Pushkar Singh Rathore</t>
+  </si>
+  <si>
+    <t>221MN042</t>
+  </si>
+  <si>
+    <t>pushkarrathore</t>
+  </si>
+  <si>
+    <t>pushkarrathore221MN042</t>
+  </si>
+  <si>
+    <t>S Karthik</t>
+  </si>
+  <si>
+    <t>221MN044</t>
+  </si>
+  <si>
+    <t>skarthik</t>
+  </si>
+  <si>
+    <t>skarthik221MN044</t>
+  </si>
+  <si>
+    <t>Abdul Wasey</t>
+  </si>
+  <si>
+    <t>221MT001</t>
+  </si>
+  <si>
+    <t>abdulwasey</t>
+  </si>
+  <si>
+    <t>abdulwasey221MT001</t>
+  </si>
+  <si>
+    <t>Abhishek A</t>
+  </si>
+  <si>
+    <t>221MT002</t>
+  </si>
+  <si>
+    <t>abhisheka</t>
+  </si>
+  <si>
+    <t>abhisheka221MT002</t>
+  </si>
+  <si>
+    <t>SONAL SHRIYA PAI</t>
+  </si>
+  <si>
+    <t>221MT040</t>
+  </si>
+  <si>
+    <t>sonalpai</t>
+  </si>
+  <si>
+    <t>sonalpai221MT040</t>
+  </si>
+  <si>
+    <t>Vellalacheruvu Raviteja</t>
+  </si>
+  <si>
+    <t>221MT047</t>
+  </si>
+  <si>
+    <t>vellalacheruvuraviteja</t>
+  </si>
+  <si>
+    <t>vellalacheruvuraviteja221MT047</t>
+  </si>
+  <si>
+    <t>Anna Kuriakose</t>
+  </si>
+  <si>
+    <t>222TS003</t>
+  </si>
+  <si>
+    <t>annakuriakose</t>
+  </si>
+  <si>
+    <t>annakuriakose222TS003</t>
+  </si>
+  <si>
+    <t>Bismi Assis</t>
+  </si>
+  <si>
+    <t>222TS008</t>
+  </si>
+  <si>
+    <t>bismiassis</t>
+  </si>
+  <si>
+    <t>bismiassis222TS008</t>
+  </si>
+  <si>
+    <t>Prathamesh Kapile</t>
+  </si>
+  <si>
+    <t>223GT001</t>
+  </si>
+  <si>
+    <t>prathameshkapile</t>
+  </si>
+  <si>
+    <t>prathameshkapile223GT001</t>
+  </si>
+  <si>
+    <t>UMIKA SAROHA</t>
+  </si>
+  <si>
+    <t>211CS161</t>
+  </si>
+  <si>
+    <t>umikasaroha</t>
+  </si>
+  <si>
+    <t>umikasaroha211CS161</t>
+  </si>
+  <si>
+    <t>Shreyas Murthy</t>
+  </si>
+  <si>
+    <t>211EC147</t>
+  </si>
+  <si>
+    <t>shreyasmurthy</t>
+  </si>
+  <si>
+    <t>shreyasmurthy211EC147</t>
+  </si>
+  <si>
+    <t>Kunal Kumar</t>
+  </si>
+  <si>
+    <t>211EC227</t>
+  </si>
+  <si>
+    <t>kunalkumar</t>
+  </si>
+  <si>
+    <t>kunalkumar211EC227</t>
+  </si>
+  <si>
+    <t>SANJEEV KUMAR SETHI</t>
+  </si>
+  <si>
+    <t>211EE142</t>
+  </si>
+  <si>
+    <t>sanjeevsethi</t>
+  </si>
+  <si>
+    <t>sanjeevsethi211EE142</t>
+  </si>
+  <si>
+    <t>PAYAL GOMLADU</t>
+  </si>
+  <si>
+    <t>211EE245</t>
+  </si>
+  <si>
+    <t>payalgomladu</t>
+  </si>
+  <si>
+    <t>payalgomladu211EE245</t>
+  </si>
+  <si>
+    <t>Jayasimha S</t>
+  </si>
+  <si>
+    <t>211IT027</t>
+  </si>
+  <si>
+    <t>jayasimhas</t>
+  </si>
+  <si>
+    <t>jayasimhas211IT027</t>
+  </si>
+  <si>
+    <t>Mehta Hriday Niraj</t>
+  </si>
+  <si>
+    <t>211ME129</t>
+  </si>
+  <si>
+    <t>mehtaniraj</t>
+  </si>
+  <si>
+    <t>mehtaniraj211ME129</t>
+  </si>
+  <si>
+    <t>Vikas kumar patel</t>
+  </si>
+  <si>
+    <t>211ME160</t>
+  </si>
+  <si>
+    <t>vikaspatel</t>
+  </si>
+  <si>
+    <t>vikaspatel211ME160</t>
+  </si>
+  <si>
+    <t>Mahak Jain</t>
+  </si>
+  <si>
+    <t>211CV127</t>
+  </si>
+  <si>
+    <t>mahakjain</t>
+  </si>
+  <si>
+    <t>mahakjain211CV127</t>
+  </si>
+  <si>
+    <t>Tapash Barman</t>
+  </si>
+  <si>
+    <t>222GT020</t>
+  </si>
+  <si>
+    <t>tapashbarman</t>
+  </si>
+  <si>
+    <t>tapashbarman222GT020</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +3669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1954,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1971,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1988,7 +3740,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2005,7 +3757,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2022,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2039,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2056,7 +3808,7 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2073,7 +3825,7 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2090,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2107,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2124,7 +3876,7 @@
         <v>48</v>
       </c>
       <c r="E12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2141,7 +3893,7 @@
         <v>52</v>
       </c>
       <c r="E13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2158,7 +3910,7 @@
         <v>56</v>
       </c>
       <c r="E14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2175,7 +3927,7 @@
         <v>60</v>
       </c>
       <c r="E15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2192,7 +3944,7 @@
         <v>64</v>
       </c>
       <c r="E16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2209,7 +3961,7 @@
         <v>68</v>
       </c>
       <c r="E17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2226,7 +3978,7 @@
         <v>72</v>
       </c>
       <c r="E18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2243,7 +3995,7 @@
         <v>76</v>
       </c>
       <c r="E19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2260,7 +4012,7 @@
         <v>80</v>
       </c>
       <c r="E20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2277,7 +4029,7 @@
         <v>84</v>
       </c>
       <c r="E21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2294,7 +4046,7 @@
         <v>88</v>
       </c>
       <c r="E22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2311,7 +4063,7 @@
         <v>92</v>
       </c>
       <c r="E23">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2328,7 +4080,7 @@
         <v>96</v>
       </c>
       <c r="E24">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2345,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2362,7 +4114,7 @@
         <v>104</v>
       </c>
       <c r="E26">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2379,7 +4131,7 @@
         <v>108</v>
       </c>
       <c r="E27">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2396,7 +4148,7 @@
         <v>112</v>
       </c>
       <c r="E28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2413,7 +4165,7 @@
         <v>116</v>
       </c>
       <c r="E29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2430,7 +4182,7 @@
         <v>120</v>
       </c>
       <c r="E30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2447,7 +4199,7 @@
         <v>124</v>
       </c>
       <c r="E31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2464,7 +4216,7 @@
         <v>128</v>
       </c>
       <c r="E32">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2481,7 +4233,7 @@
         <v>132</v>
       </c>
       <c r="E33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2498,7 +4250,7 @@
         <v>136</v>
       </c>
       <c r="E34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2515,7 +4267,7 @@
         <v>140</v>
       </c>
       <c r="E35">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2532,7 +4284,7 @@
         <v>144</v>
       </c>
       <c r="E36">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2549,7 +4301,7 @@
         <v>148</v>
       </c>
       <c r="E37">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2566,7 +4318,7 @@
         <v>152</v>
       </c>
       <c r="E38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2583,7 +4335,7 @@
         <v>156</v>
       </c>
       <c r="E39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2600,7 +4352,7 @@
         <v>160</v>
       </c>
       <c r="E40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2617,7 +4369,7 @@
         <v>164</v>
       </c>
       <c r="E41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2634,7 +4386,7 @@
         <v>168</v>
       </c>
       <c r="E42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2651,7 +4403,7 @@
         <v>172</v>
       </c>
       <c r="E43">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2668,7 +4420,7 @@
         <v>176</v>
       </c>
       <c r="E44">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2685,7 +4437,7 @@
         <v>180</v>
       </c>
       <c r="E45">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2702,7 +4454,7 @@
         <v>184</v>
       </c>
       <c r="E46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2719,7 +4471,7 @@
         <v>188</v>
       </c>
       <c r="E47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2736,7 +4488,7 @@
         <v>192</v>
       </c>
       <c r="E48">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2753,7 +4505,7 @@
         <v>196</v>
       </c>
       <c r="E49">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2770,7 +4522,7 @@
         <v>200</v>
       </c>
       <c r="E50">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2787,7 +4539,7 @@
         <v>204</v>
       </c>
       <c r="E51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2804,7 +4556,7 @@
         <v>208</v>
       </c>
       <c r="E52">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2821,7 +4573,7 @@
         <v>212</v>
       </c>
       <c r="E53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2838,7 +4590,7 @@
         <v>216</v>
       </c>
       <c r="E54">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2855,7 +4607,7 @@
         <v>220</v>
       </c>
       <c r="E55">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2872,7 +4624,7 @@
         <v>224</v>
       </c>
       <c r="E56">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2889,7 +4641,7 @@
         <v>228</v>
       </c>
       <c r="E57">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2906,7 +4658,7 @@
         <v>232</v>
       </c>
       <c r="E58">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2923,7 +4675,7 @@
         <v>236</v>
       </c>
       <c r="E59">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2940,7 +4692,7 @@
         <v>240</v>
       </c>
       <c r="E60">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2957,7 +4709,7 @@
         <v>244</v>
       </c>
       <c r="E61">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2974,7 +4726,7 @@
         <v>248</v>
       </c>
       <c r="E62">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2991,7 +4743,7 @@
         <v>252</v>
       </c>
       <c r="E63">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3008,7 +4760,7 @@
         <v>256</v>
       </c>
       <c r="E64">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3025,7 +4777,7 @@
         <v>260</v>
       </c>
       <c r="E65">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3042,7 +4794,7 @@
         <v>264</v>
       </c>
       <c r="E66">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3144,7 +4896,7 @@
         <v>288</v>
       </c>
       <c r="E72">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3161,7 +4913,7 @@
         <v>292</v>
       </c>
       <c r="E73">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3178,7 +4930,7 @@
         <v>296</v>
       </c>
       <c r="E74">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3195,7 +4947,7 @@
         <v>300</v>
       </c>
       <c r="E75">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3212,7 +4964,7 @@
         <v>304</v>
       </c>
       <c r="E76">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3229,7 +4981,7 @@
         <v>308</v>
       </c>
       <c r="E77">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3246,7 +4998,7 @@
         <v>312</v>
       </c>
       <c r="E78">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3263,7 +5015,7 @@
         <v>316</v>
       </c>
       <c r="E79">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3280,7 +5032,7 @@
         <v>320</v>
       </c>
       <c r="E80">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3297,7 +5049,7 @@
         <v>324</v>
       </c>
       <c r="E81">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3314,7 +5066,7 @@
         <v>328</v>
       </c>
       <c r="E82">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3331,7 +5083,7 @@
         <v>332</v>
       </c>
       <c r="E83">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3348,7 +5100,7 @@
         <v>336</v>
       </c>
       <c r="E84">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3365,7 +5117,7 @@
         <v>340</v>
       </c>
       <c r="E85">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3382,7 +5134,7 @@
         <v>344</v>
       </c>
       <c r="E86">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3399,7 +5151,7 @@
         <v>348</v>
       </c>
       <c r="E87">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3416,7 +5168,7 @@
         <v>352</v>
       </c>
       <c r="E88">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3433,7 +5185,7 @@
         <v>356</v>
       </c>
       <c r="E89">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3450,7 +5202,7 @@
         <v>360</v>
       </c>
       <c r="E90">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3467,7 +5219,7 @@
         <v>364</v>
       </c>
       <c r="E91">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3484,7 +5236,7 @@
         <v>368</v>
       </c>
       <c r="E92">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3501,7 +5253,7 @@
         <v>372</v>
       </c>
       <c r="E93">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3518,7 +5270,7 @@
         <v>376</v>
       </c>
       <c r="E94">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3535,7 +5287,7 @@
         <v>380</v>
       </c>
       <c r="E95">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3552,7 +5304,7 @@
         <v>384</v>
       </c>
       <c r="E96">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3569,7 +5321,7 @@
         <v>388</v>
       </c>
       <c r="E97">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3586,7 +5338,7 @@
         <v>392</v>
       </c>
       <c r="E98">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3603,7 +5355,7 @@
         <v>396</v>
       </c>
       <c r="E99">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3620,7 +5372,7 @@
         <v>400</v>
       </c>
       <c r="E100">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3637,7 +5389,7 @@
         <v>404</v>
       </c>
       <c r="E101">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3654,7 +5406,7 @@
         <v>408</v>
       </c>
       <c r="E102">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3671,7 +5423,7 @@
         <v>412</v>
       </c>
       <c r="E103">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3688,7 +5440,7 @@
         <v>416</v>
       </c>
       <c r="E104">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3705,7 +5457,7 @@
         <v>420</v>
       </c>
       <c r="E105">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3722,7 +5474,7 @@
         <v>424</v>
       </c>
       <c r="E106">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3739,7 +5491,7 @@
         <v>428</v>
       </c>
       <c r="E107">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3756,7 +5508,7 @@
         <v>432</v>
       </c>
       <c r="E108">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3773,7 +5525,7 @@
         <v>436</v>
       </c>
       <c r="E109">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3790,7 +5542,7 @@
         <v>440</v>
       </c>
       <c r="E110">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3807,7 +5559,7 @@
         <v>444</v>
       </c>
       <c r="E111">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3818,335 +5570,2817 @@
         <v>446</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E112">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C113" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E113">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E114">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E115">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E116">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E117">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E118">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E119">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D120" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E120">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D121" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E121">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D122" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E122">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B123" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E123">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D124" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E124">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C125" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E125">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E126">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D127" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E127">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E128">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D129" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E129">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D130" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E130">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D131" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E131">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>525</v>
+      </c>
+      <c r="B132" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" t="s">
+        <v>527</v>
+      </c>
+      <c r="D132" t="s">
+        <v>528</v>
+      </c>
+      <c r="E132">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>529</v>
+      </c>
+      <c r="B133" t="s">
+        <v>530</v>
+      </c>
+      <c r="C133" t="s">
+        <v>531</v>
+      </c>
+      <c r="D133" t="s">
+        <v>532</v>
+      </c>
+      <c r="E133">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>533</v>
+      </c>
+      <c r="B134" t="s">
+        <v>534</v>
+      </c>
+      <c r="C134" t="s">
+        <v>535</v>
+      </c>
+      <c r="D134" t="s">
+        <v>536</v>
+      </c>
+      <c r="E134">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>537</v>
+      </c>
+      <c r="B135" t="s">
+        <v>538</v>
+      </c>
+      <c r="C135" t="s">
+        <v>539</v>
+      </c>
+      <c r="D135" t="s">
+        <v>540</v>
+      </c>
+      <c r="E135">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>541</v>
+      </c>
+      <c r="B136" t="s">
+        <v>542</v>
+      </c>
+      <c r="C136" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" t="s">
+        <v>544</v>
+      </c>
+      <c r="E136">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>545</v>
+      </c>
+      <c r="B137" t="s">
+        <v>546</v>
+      </c>
+      <c r="C137" t="s">
+        <v>547</v>
+      </c>
+      <c r="D137" t="s">
+        <v>548</v>
+      </c>
+      <c r="E137">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>549</v>
+      </c>
+      <c r="B138" t="s">
+        <v>550</v>
+      </c>
+      <c r="C138" t="s">
+        <v>551</v>
+      </c>
+      <c r="D138" t="s">
+        <v>552</v>
+      </c>
+      <c r="E138">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" t="s">
+        <v>554</v>
+      </c>
+      <c r="C139" t="s">
+        <v>555</v>
+      </c>
+      <c r="D139" t="s">
+        <v>556</v>
+      </c>
+      <c r="E139">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>557</v>
+      </c>
+      <c r="B140" t="s">
+        <v>558</v>
+      </c>
+      <c r="C140" t="s">
+        <v>559</v>
+      </c>
+      <c r="D140" t="s">
+        <v>560</v>
+      </c>
+      <c r="E140">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>561</v>
+      </c>
+      <c r="B141" t="s">
+        <v>562</v>
+      </c>
+      <c r="C141" t="s">
+        <v>563</v>
+      </c>
+      <c r="D141" t="s">
+        <v>564</v>
+      </c>
+      <c r="E141">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>565</v>
+      </c>
+      <c r="B142" t="s">
+        <v>566</v>
+      </c>
+      <c r="C142" t="s">
+        <v>567</v>
+      </c>
+      <c r="D142" t="s">
+        <v>568</v>
+      </c>
+      <c r="E142">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>569</v>
+      </c>
+      <c r="B143" t="s">
+        <v>570</v>
+      </c>
+      <c r="C143" t="s">
+        <v>571</v>
+      </c>
+      <c r="D143" t="s">
+        <v>572</v>
+      </c>
+      <c r="E143">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>573</v>
+      </c>
+      <c r="B144" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" t="s">
+        <v>575</v>
+      </c>
+      <c r="D144" t="s">
+        <v>576</v>
+      </c>
+      <c r="E144">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" t="s">
+        <v>578</v>
+      </c>
+      <c r="C145" t="s">
+        <v>579</v>
+      </c>
+      <c r="D145" t="s">
+        <v>580</v>
+      </c>
+      <c r="E145">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>581</v>
+      </c>
+      <c r="B146" t="s">
+        <v>582</v>
+      </c>
+      <c r="C146" t="s">
+        <v>583</v>
+      </c>
+      <c r="D146" t="s">
+        <v>584</v>
+      </c>
+      <c r="E146">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>585</v>
+      </c>
+      <c r="B147" t="s">
+        <v>586</v>
+      </c>
+      <c r="C147" t="s">
+        <v>587</v>
+      </c>
+      <c r="D147" t="s">
+        <v>588</v>
+      </c>
+      <c r="E147">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>589</v>
+      </c>
+      <c r="B148" t="s">
+        <v>590</v>
+      </c>
+      <c r="C148" t="s">
+        <v>591</v>
+      </c>
+      <c r="D148" t="s">
+        <v>592</v>
+      </c>
+      <c r="E148">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>593</v>
+      </c>
+      <c r="B149" t="s">
+        <v>594</v>
+      </c>
+      <c r="C149" t="s">
+        <v>595</v>
+      </c>
+      <c r="D149" t="s">
+        <v>596</v>
+      </c>
+      <c r="E149">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>597</v>
+      </c>
+      <c r="B150" t="s">
+        <v>598</v>
+      </c>
+      <c r="C150" t="s">
+        <v>599</v>
+      </c>
+      <c r="D150" t="s">
+        <v>600</v>
+      </c>
+      <c r="E150">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>601</v>
+      </c>
+      <c r="B151" t="s">
+        <v>602</v>
+      </c>
+      <c r="C151" t="s">
+        <v>603</v>
+      </c>
+      <c r="D151" t="s">
+        <v>604</v>
+      </c>
+      <c r="E151">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>605</v>
+      </c>
+      <c r="B152" t="s">
+        <v>606</v>
+      </c>
+      <c r="C152" t="s">
+        <v>607</v>
+      </c>
+      <c r="D152" t="s">
+        <v>608</v>
+      </c>
+      <c r="E152">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>609</v>
+      </c>
+      <c r="B153" t="s">
+        <v>610</v>
+      </c>
+      <c r="C153" t="s">
+        <v>611</v>
+      </c>
+      <c r="D153" t="s">
+        <v>612</v>
+      </c>
+      <c r="E153">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>613</v>
+      </c>
+      <c r="B154" t="s">
+        <v>614</v>
+      </c>
+      <c r="C154" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" t="s">
+        <v>616</v>
+      </c>
+      <c r="E154">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>617</v>
+      </c>
+      <c r="B155" t="s">
+        <v>618</v>
+      </c>
+      <c r="C155" t="s">
+        <v>619</v>
+      </c>
+      <c r="D155" t="s">
+        <v>620</v>
+      </c>
+      <c r="E155">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>621</v>
+      </c>
+      <c r="B156" t="s">
+        <v>622</v>
+      </c>
+      <c r="C156" t="s">
+        <v>623</v>
+      </c>
+      <c r="D156" t="s">
+        <v>624</v>
+      </c>
+      <c r="E156">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>625</v>
+      </c>
+      <c r="B157" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" t="s">
+        <v>627</v>
+      </c>
+      <c r="D157" t="s">
+        <v>628</v>
+      </c>
+      <c r="E157">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>629</v>
+      </c>
+      <c r="B158" t="s">
+        <v>630</v>
+      </c>
+      <c r="C158" t="s">
+        <v>631</v>
+      </c>
+      <c r="D158" t="s">
+        <v>632</v>
+      </c>
+      <c r="E158">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>633</v>
+      </c>
+      <c r="B159" t="s">
+        <v>634</v>
+      </c>
+      <c r="C159" t="s">
+        <v>635</v>
+      </c>
+      <c r="D159" t="s">
+        <v>636</v>
+      </c>
+      <c r="E159">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>637</v>
+      </c>
+      <c r="B160" t="s">
+        <v>638</v>
+      </c>
+      <c r="C160" t="s">
+        <v>639</v>
+      </c>
+      <c r="D160" t="s">
+        <v>640</v>
+      </c>
+      <c r="E160">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>641</v>
+      </c>
+      <c r="B161" t="s">
+        <v>642</v>
+      </c>
+      <c r="C161" t="s">
+        <v>643</v>
+      </c>
+      <c r="D161" t="s">
+        <v>644</v>
+      </c>
+      <c r="E161">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>645</v>
+      </c>
+      <c r="B162" t="s">
+        <v>646</v>
+      </c>
+      <c r="C162" t="s">
+        <v>647</v>
+      </c>
+      <c r="D162" t="s">
+        <v>648</v>
+      </c>
+      <c r="E162">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>649</v>
+      </c>
+      <c r="B163" t="s">
+        <v>650</v>
+      </c>
+      <c r="C163" t="s">
+        <v>651</v>
+      </c>
+      <c r="D163" t="s">
+        <v>652</v>
+      </c>
+      <c r="E163">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>653</v>
+      </c>
+      <c r="B164" t="s">
+        <v>654</v>
+      </c>
+      <c r="C164" t="s">
+        <v>655</v>
+      </c>
+      <c r="D164" t="s">
+        <v>656</v>
+      </c>
+      <c r="E164">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>657</v>
+      </c>
+      <c r="B165" t="s">
+        <v>658</v>
+      </c>
+      <c r="C165" t="s">
+        <v>659</v>
+      </c>
+      <c r="D165" t="s">
+        <v>660</v>
+      </c>
+      <c r="E165">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>661</v>
+      </c>
+      <c r="B166" t="s">
+        <v>662</v>
+      </c>
+      <c r="C166" t="s">
+        <v>663</v>
+      </c>
+      <c r="D166" t="s">
+        <v>664</v>
+      </c>
+      <c r="E166">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>665</v>
+      </c>
+      <c r="B167" t="s">
+        <v>666</v>
+      </c>
+      <c r="C167" t="s">
+        <v>667</v>
+      </c>
+      <c r="D167" t="s">
+        <v>668</v>
+      </c>
+      <c r="E167">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>669</v>
+      </c>
+      <c r="B168" t="s">
+        <v>670</v>
+      </c>
+      <c r="C168" t="s">
+        <v>671</v>
+      </c>
+      <c r="D168" t="s">
+        <v>672</v>
+      </c>
+      <c r="E168">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>673</v>
+      </c>
+      <c r="B169" t="s">
+        <v>674</v>
+      </c>
+      <c r="C169" t="s">
+        <v>675</v>
+      </c>
+      <c r="D169" t="s">
+        <v>676</v>
+      </c>
+      <c r="E169">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>677</v>
+      </c>
+      <c r="B170" t="s">
+        <v>678</v>
+      </c>
+      <c r="C170" t="s">
+        <v>679</v>
+      </c>
+      <c r="D170" t="s">
+        <v>680</v>
+      </c>
+      <c r="E170">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>681</v>
+      </c>
+      <c r="B171" t="s">
+        <v>682</v>
+      </c>
+      <c r="C171" t="s">
+        <v>683</v>
+      </c>
+      <c r="D171" t="s">
+        <v>684</v>
+      </c>
+      <c r="E171">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>685</v>
+      </c>
+      <c r="B172" t="s">
+        <v>686</v>
+      </c>
+      <c r="C172" t="s">
+        <v>687</v>
+      </c>
+      <c r="D172" t="s">
+        <v>688</v>
+      </c>
+      <c r="E172">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>689</v>
+      </c>
+      <c r="B173" t="s">
+        <v>690</v>
+      </c>
+      <c r="C173" t="s">
+        <v>691</v>
+      </c>
+      <c r="D173" t="s">
+        <v>692</v>
+      </c>
+      <c r="E173">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>693</v>
+      </c>
+      <c r="B174" t="s">
+        <v>694</v>
+      </c>
+      <c r="C174" t="s">
+        <v>695</v>
+      </c>
+      <c r="D174" t="s">
+        <v>696</v>
+      </c>
+      <c r="E174">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>697</v>
+      </c>
+      <c r="B175" t="s">
+        <v>698</v>
+      </c>
+      <c r="C175" t="s">
+        <v>699</v>
+      </c>
+      <c r="D175" t="s">
+        <v>700</v>
+      </c>
+      <c r="E175">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>701</v>
+      </c>
+      <c r="B176" t="s">
+        <v>702</v>
+      </c>
+      <c r="C176" t="s">
+        <v>703</v>
+      </c>
+      <c r="D176" t="s">
+        <v>704</v>
+      </c>
+      <c r="E176">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>705</v>
+      </c>
+      <c r="B177" t="s">
+        <v>706</v>
+      </c>
+      <c r="C177" t="s">
+        <v>707</v>
+      </c>
+      <c r="D177" t="s">
+        <v>708</v>
+      </c>
+      <c r="E177">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>709</v>
+      </c>
+      <c r="B178" t="s">
+        <v>710</v>
+      </c>
+      <c r="C178" t="s">
+        <v>711</v>
+      </c>
+      <c r="D178" t="s">
+        <v>712</v>
+      </c>
+      <c r="E178">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>713</v>
+      </c>
+      <c r="B179" t="s">
+        <v>714</v>
+      </c>
+      <c r="C179" t="s">
+        <v>715</v>
+      </c>
+      <c r="D179" t="s">
+        <v>716</v>
+      </c>
+      <c r="E179">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>717</v>
+      </c>
+      <c r="B180" t="s">
+        <v>718</v>
+      </c>
+      <c r="C180" t="s">
+        <v>719</v>
+      </c>
+      <c r="D180" t="s">
+        <v>720</v>
+      </c>
+      <c r="E180">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>721</v>
+      </c>
+      <c r="B181" t="s">
+        <v>722</v>
+      </c>
+      <c r="C181" t="s">
+        <v>723</v>
+      </c>
+      <c r="D181" t="s">
+        <v>724</v>
+      </c>
+      <c r="E181">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>725</v>
+      </c>
+      <c r="B182" t="s">
+        <v>726</v>
+      </c>
+      <c r="C182" t="s">
+        <v>727</v>
+      </c>
+      <c r="D182" t="s">
+        <v>728</v>
+      </c>
+      <c r="E182">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>729</v>
+      </c>
+      <c r="B183" t="s">
+        <v>730</v>
+      </c>
+      <c r="C183" t="s">
+        <v>731</v>
+      </c>
+      <c r="D183" t="s">
+        <v>732</v>
+      </c>
+      <c r="E183">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>733</v>
+      </c>
+      <c r="B184" t="s">
+        <v>734</v>
+      </c>
+      <c r="C184" t="s">
+        <v>735</v>
+      </c>
+      <c r="D184" t="s">
+        <v>736</v>
+      </c>
+      <c r="E184">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>737</v>
+      </c>
+      <c r="B185" t="s">
+        <v>738</v>
+      </c>
+      <c r="C185" t="s">
+        <v>739</v>
+      </c>
+      <c r="D185" t="s">
+        <v>740</v>
+      </c>
+      <c r="E185">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>741</v>
+      </c>
+      <c r="B186" t="s">
+        <v>742</v>
+      </c>
+      <c r="C186" t="s">
+        <v>743</v>
+      </c>
+      <c r="D186" t="s">
+        <v>744</v>
+      </c>
+      <c r="E186">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>745</v>
+      </c>
+      <c r="B187" t="s">
+        <v>746</v>
+      </c>
+      <c r="C187" t="s">
+        <v>747</v>
+      </c>
+      <c r="D187" t="s">
+        <v>748</v>
+      </c>
+      <c r="E187">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>749</v>
+      </c>
+      <c r="B188" t="s">
+        <v>750</v>
+      </c>
+      <c r="C188" t="s">
+        <v>751</v>
+      </c>
+      <c r="D188" t="s">
+        <v>752</v>
+      </c>
+      <c r="E188">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>753</v>
+      </c>
+      <c r="B189" t="s">
+        <v>754</v>
+      </c>
+      <c r="C189" t="s">
+        <v>755</v>
+      </c>
+      <c r="D189" t="s">
+        <v>756</v>
+      </c>
+      <c r="E189">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>757</v>
+      </c>
+      <c r="B190" t="s">
+        <v>758</v>
+      </c>
+      <c r="C190" t="s">
+        <v>759</v>
+      </c>
+      <c r="D190" t="s">
+        <v>760</v>
+      </c>
+      <c r="E190">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>761</v>
+      </c>
+      <c r="B191" t="s">
+        <v>762</v>
+      </c>
+      <c r="C191" t="s">
+        <v>263</v>
+      </c>
+      <c r="D191" t="s">
+        <v>763</v>
+      </c>
+      <c r="E191">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>764</v>
+      </c>
+      <c r="B192" t="s">
+        <v>765</v>
+      </c>
+      <c r="C192" t="s">
+        <v>766</v>
+      </c>
+      <c r="D192" t="s">
+        <v>767</v>
+      </c>
+      <c r="E192">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>768</v>
+      </c>
+      <c r="B193" t="s">
+        <v>769</v>
+      </c>
+      <c r="C193" t="s">
+        <v>770</v>
+      </c>
+      <c r="D193" t="s">
+        <v>771</v>
+      </c>
+      <c r="E193">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>772</v>
+      </c>
+      <c r="B194" t="s">
+        <v>773</v>
+      </c>
+      <c r="C194" t="s">
+        <v>774</v>
+      </c>
+      <c r="D194" t="s">
+        <v>775</v>
+      </c>
+      <c r="E194">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>776</v>
+      </c>
+      <c r="B195" t="s">
+        <v>777</v>
+      </c>
+      <c r="C195" t="s">
+        <v>778</v>
+      </c>
+      <c r="D195" t="s">
+        <v>779</v>
+      </c>
+      <c r="E195">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>780</v>
+      </c>
+      <c r="B196" t="s">
+        <v>781</v>
+      </c>
+      <c r="C196" t="s">
+        <v>782</v>
+      </c>
+      <c r="D196" t="s">
+        <v>783</v>
+      </c>
+      <c r="E196">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>784</v>
+      </c>
+      <c r="B197" t="s">
+        <v>785</v>
+      </c>
+      <c r="C197" t="s">
+        <v>786</v>
+      </c>
+      <c r="D197" t="s">
+        <v>787</v>
+      </c>
+      <c r="E197">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>788</v>
+      </c>
+      <c r="B198" t="s">
+        <v>789</v>
+      </c>
+      <c r="C198" t="s">
+        <v>790</v>
+      </c>
+      <c r="D198" t="s">
+        <v>791</v>
+      </c>
+      <c r="E198">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>792</v>
+      </c>
+      <c r="B199" t="s">
+        <v>793</v>
+      </c>
+      <c r="C199" t="s">
+        <v>794</v>
+      </c>
+      <c r="D199" t="s">
+        <v>795</v>
+      </c>
+      <c r="E199">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>797</v>
+      </c>
+      <c r="C200" t="s">
+        <v>798</v>
+      </c>
+      <c r="D200" t="s">
+        <v>799</v>
+      </c>
+      <c r="E200">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>800</v>
+      </c>
+      <c r="B201" t="s">
+        <v>801</v>
+      </c>
+      <c r="C201" t="s">
+        <v>802</v>
+      </c>
+      <c r="D201" t="s">
+        <v>803</v>
+      </c>
+      <c r="E201">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>804</v>
+      </c>
+      <c r="B202" t="s">
+        <v>805</v>
+      </c>
+      <c r="C202" t="s">
+        <v>806</v>
+      </c>
+      <c r="D202" t="s">
+        <v>807</v>
+      </c>
+      <c r="E202">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>808</v>
+      </c>
+      <c r="B203" t="s">
+        <v>809</v>
+      </c>
+      <c r="C203" t="s">
+        <v>810</v>
+      </c>
+      <c r="D203" t="s">
+        <v>811</v>
+      </c>
+      <c r="E203">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>812</v>
+      </c>
+      <c r="B204" t="s">
+        <v>813</v>
+      </c>
+      <c r="C204" t="s">
+        <v>814</v>
+      </c>
+      <c r="D204" t="s">
+        <v>815</v>
+      </c>
+      <c r="E204">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>816</v>
+      </c>
+      <c r="B205" t="s">
+        <v>817</v>
+      </c>
+      <c r="C205" t="s">
+        <v>818</v>
+      </c>
+      <c r="D205" t="s">
+        <v>819</v>
+      </c>
+      <c r="E205">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>820</v>
+      </c>
+      <c r="B206" t="s">
+        <v>821</v>
+      </c>
+      <c r="C206" t="s">
+        <v>822</v>
+      </c>
+      <c r="D206" t="s">
+        <v>823</v>
+      </c>
+      <c r="E206">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>824</v>
+      </c>
+      <c r="B207" t="s">
+        <v>825</v>
+      </c>
+      <c r="C207" t="s">
+        <v>826</v>
+      </c>
+      <c r="D207" t="s">
+        <v>827</v>
+      </c>
+      <c r="E207">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>828</v>
+      </c>
+      <c r="B208" t="s">
+        <v>829</v>
+      </c>
+      <c r="C208" t="s">
+        <v>830</v>
+      </c>
+      <c r="D208" t="s">
+        <v>831</v>
+      </c>
+      <c r="E208">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>832</v>
+      </c>
+      <c r="B209" t="s">
+        <v>833</v>
+      </c>
+      <c r="C209" t="s">
+        <v>834</v>
+      </c>
+      <c r="D209" t="s">
+        <v>835</v>
+      </c>
+      <c r="E209">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>836</v>
+      </c>
+      <c r="B210" t="s">
+        <v>837</v>
+      </c>
+      <c r="C210" t="s">
+        <v>838</v>
+      </c>
+      <c r="D210" t="s">
+        <v>839</v>
+      </c>
+      <c r="E210">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>840</v>
+      </c>
+      <c r="B211" t="s">
+        <v>841</v>
+      </c>
+      <c r="C211" t="s">
+        <v>842</v>
+      </c>
+      <c r="D211" t="s">
+        <v>843</v>
+      </c>
+      <c r="E211">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>844</v>
+      </c>
+      <c r="B212" t="s">
+        <v>845</v>
+      </c>
+      <c r="C212" t="s">
+        <v>846</v>
+      </c>
+      <c r="D212" t="s">
+        <v>847</v>
+      </c>
+      <c r="E212">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>848</v>
+      </c>
+      <c r="B213" t="s">
+        <v>849</v>
+      </c>
+      <c r="C213" t="s">
+        <v>850</v>
+      </c>
+      <c r="D213" t="s">
+        <v>851</v>
+      </c>
+      <c r="E213">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>852</v>
+      </c>
+      <c r="B214" t="s">
+        <v>853</v>
+      </c>
+      <c r="C214" t="s">
+        <v>854</v>
+      </c>
+      <c r="D214" t="s">
+        <v>855</v>
+      </c>
+      <c r="E214">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>856</v>
+      </c>
+      <c r="B215" t="s">
+        <v>857</v>
+      </c>
+      <c r="C215" t="s">
+        <v>858</v>
+      </c>
+      <c r="D215" t="s">
+        <v>859</v>
+      </c>
+      <c r="E215">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>860</v>
+      </c>
+      <c r="B216" t="s">
+        <v>861</v>
+      </c>
+      <c r="C216" t="s">
+        <v>862</v>
+      </c>
+      <c r="D216" t="s">
+        <v>863</v>
+      </c>
+      <c r="E216">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>864</v>
+      </c>
+      <c r="B217" t="s">
+        <v>865</v>
+      </c>
+      <c r="C217" t="s">
+        <v>866</v>
+      </c>
+      <c r="D217" t="s">
+        <v>867</v>
+      </c>
+      <c r="E217">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>868</v>
+      </c>
+      <c r="B218" t="s">
+        <v>869</v>
+      </c>
+      <c r="C218" t="s">
+        <v>870</v>
+      </c>
+      <c r="D218" t="s">
+        <v>871</v>
+      </c>
+      <c r="E218">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>872</v>
+      </c>
+      <c r="B219" t="s">
+        <v>873</v>
+      </c>
+      <c r="C219" t="s">
+        <v>874</v>
+      </c>
+      <c r="D219" t="s">
+        <v>875</v>
+      </c>
+      <c r="E219">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>876</v>
+      </c>
+      <c r="B220" t="s">
+        <v>877</v>
+      </c>
+      <c r="C220" t="s">
+        <v>878</v>
+      </c>
+      <c r="D220" t="s">
+        <v>879</v>
+      </c>
+      <c r="E220">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>880</v>
+      </c>
+      <c r="B221" t="s">
+        <v>881</v>
+      </c>
+      <c r="C221" t="s">
+        <v>882</v>
+      </c>
+      <c r="D221" t="s">
+        <v>883</v>
+      </c>
+      <c r="E221">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>884</v>
+      </c>
+      <c r="B222" t="s">
+        <v>885</v>
+      </c>
+      <c r="C222" t="s">
+        <v>886</v>
+      </c>
+      <c r="D222" t="s">
+        <v>887</v>
+      </c>
+      <c r="E222">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>889</v>
+      </c>
+      <c r="C223" t="s">
+        <v>890</v>
+      </c>
+      <c r="D223" t="s">
+        <v>891</v>
+      </c>
+      <c r="E223">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>892</v>
+      </c>
+      <c r="B224" t="s">
+        <v>893</v>
+      </c>
+      <c r="C224" t="s">
+        <v>894</v>
+      </c>
+      <c r="D224" t="s">
+        <v>895</v>
+      </c>
+      <c r="E224">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>896</v>
+      </c>
+      <c r="B225" t="s">
+        <v>897</v>
+      </c>
+      <c r="C225" t="s">
+        <v>898</v>
+      </c>
+      <c r="D225" t="s">
+        <v>899</v>
+      </c>
+      <c r="E225">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>900</v>
+      </c>
+      <c r="B226" t="s">
+        <v>901</v>
+      </c>
+      <c r="C226" t="s">
+        <v>902</v>
+      </c>
+      <c r="D226" t="s">
+        <v>903</v>
+      </c>
+      <c r="E226">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>904</v>
+      </c>
+      <c r="B227" t="s">
+        <v>905</v>
+      </c>
+      <c r="C227" t="s">
+        <v>906</v>
+      </c>
+      <c r="D227" t="s">
+        <v>907</v>
+      </c>
+      <c r="E227">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>908</v>
+      </c>
+      <c r="B228" t="s">
+        <v>909</v>
+      </c>
+      <c r="C228" t="s">
+        <v>910</v>
+      </c>
+      <c r="D228" t="s">
+        <v>911</v>
+      </c>
+      <c r="E228">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>912</v>
+      </c>
+      <c r="B229" t="s">
+        <v>913</v>
+      </c>
+      <c r="C229" t="s">
+        <v>914</v>
+      </c>
+      <c r="D229" t="s">
+        <v>915</v>
+      </c>
+      <c r="E229">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>916</v>
+      </c>
+      <c r="B230" t="s">
+        <v>917</v>
+      </c>
+      <c r="C230" t="s">
+        <v>918</v>
+      </c>
+      <c r="D230" t="s">
+        <v>919</v>
+      </c>
+      <c r="E230">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>920</v>
+      </c>
+      <c r="B231" t="s">
+        <v>921</v>
+      </c>
+      <c r="C231" t="s">
+        <v>922</v>
+      </c>
+      <c r="D231" t="s">
+        <v>923</v>
+      </c>
+      <c r="E231">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>924</v>
+      </c>
+      <c r="B232" t="s">
+        <v>925</v>
+      </c>
+      <c r="C232" t="s">
+        <v>926</v>
+      </c>
+      <c r="D232" t="s">
+        <v>927</v>
+      </c>
+      <c r="E232">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>928</v>
+      </c>
+      <c r="B233" t="s">
+        <v>929</v>
+      </c>
+      <c r="C233" t="s">
+        <v>930</v>
+      </c>
+      <c r="D233" t="s">
+        <v>931</v>
+      </c>
+      <c r="E233">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>932</v>
+      </c>
+      <c r="B234" t="s">
+        <v>933</v>
+      </c>
+      <c r="C234" t="s">
+        <v>934</v>
+      </c>
+      <c r="D234" t="s">
+        <v>935</v>
+      </c>
+      <c r="E234">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>936</v>
+      </c>
+      <c r="B235" t="s">
+        <v>937</v>
+      </c>
+      <c r="C235" t="s">
+        <v>938</v>
+      </c>
+      <c r="D235" t="s">
+        <v>939</v>
+      </c>
+      <c r="E235">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>940</v>
+      </c>
+      <c r="B236" t="s">
+        <v>941</v>
+      </c>
+      <c r="C236" t="s">
+        <v>942</v>
+      </c>
+      <c r="D236" t="s">
+        <v>943</v>
+      </c>
+      <c r="E236">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>944</v>
+      </c>
+      <c r="B237" t="s">
+        <v>945</v>
+      </c>
+      <c r="C237" t="s">
+        <v>946</v>
+      </c>
+      <c r="D237" t="s">
+        <v>947</v>
+      </c>
+      <c r="E237">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>948</v>
+      </c>
+      <c r="B238" t="s">
+        <v>949</v>
+      </c>
+      <c r="C238" t="s">
+        <v>950</v>
+      </c>
+      <c r="D238" t="s">
+        <v>951</v>
+      </c>
+      <c r="E238">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>952</v>
+      </c>
+      <c r="B239" t="s">
+        <v>953</v>
+      </c>
+      <c r="C239" t="s">
+        <v>954</v>
+      </c>
+      <c r="D239" t="s">
+        <v>955</v>
+      </c>
+      <c r="E239">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>956</v>
+      </c>
+      <c r="B240" t="s">
+        <v>957</v>
+      </c>
+      <c r="C240" t="s">
+        <v>958</v>
+      </c>
+      <c r="D240" t="s">
+        <v>959</v>
+      </c>
+      <c r="E240">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>960</v>
+      </c>
+      <c r="B241" t="s">
+        <v>961</v>
+      </c>
+      <c r="C241" t="s">
+        <v>962</v>
+      </c>
+      <c r="D241" t="s">
+        <v>963</v>
+      </c>
+      <c r="E241">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>964</v>
+      </c>
+      <c r="B242" t="s">
+        <v>965</v>
+      </c>
+      <c r="C242" t="s">
+        <v>966</v>
+      </c>
+      <c r="D242" t="s">
+        <v>967</v>
+      </c>
+      <c r="E242">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>968</v>
+      </c>
+      <c r="B243" t="s">
+        <v>969</v>
+      </c>
+      <c r="C243" t="s">
+        <v>970</v>
+      </c>
+      <c r="D243" t="s">
+        <v>971</v>
+      </c>
+      <c r="E243">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>972</v>
+      </c>
+      <c r="B244" t="s">
+        <v>973</v>
+      </c>
+      <c r="C244" t="s">
+        <v>974</v>
+      </c>
+      <c r="D244" t="s">
+        <v>975</v>
+      </c>
+      <c r="E244">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>976</v>
+      </c>
+      <c r="B245" t="s">
+        <v>977</v>
+      </c>
+      <c r="C245" t="s">
+        <v>978</v>
+      </c>
+      <c r="D245" t="s">
+        <v>979</v>
+      </c>
+      <c r="E245">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>980</v>
+      </c>
+      <c r="B246" t="s">
+        <v>981</v>
+      </c>
+      <c r="C246" t="s">
+        <v>982</v>
+      </c>
+      <c r="D246" t="s">
+        <v>983</v>
+      </c>
+      <c r="E246">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>984</v>
+      </c>
+      <c r="B247" t="s">
+        <v>985</v>
+      </c>
+      <c r="C247" t="s">
+        <v>986</v>
+      </c>
+      <c r="D247" t="s">
+        <v>987</v>
+      </c>
+      <c r="E247">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>988</v>
+      </c>
+      <c r="B248" t="s">
+        <v>989</v>
+      </c>
+      <c r="C248" t="s">
+        <v>990</v>
+      </c>
+      <c r="D248" t="s">
+        <v>991</v>
+      </c>
+      <c r="E248">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>992</v>
+      </c>
+      <c r="B249" t="s">
+        <v>993</v>
+      </c>
+      <c r="C249" t="s">
+        <v>994</v>
+      </c>
+      <c r="D249" t="s">
+        <v>995</v>
+      </c>
+      <c r="E249">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>996</v>
+      </c>
+      <c r="B250" t="s">
+        <v>997</v>
+      </c>
+      <c r="C250" t="s">
+        <v>998</v>
+      </c>
+      <c r="D250" t="s">
+        <v>999</v>
+      </c>
+      <c r="E250">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E251">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E252">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E253">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E254">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E255">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E256">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E257">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E258">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E259">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E260">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E261">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E262">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E263">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E264">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E265">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E266">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E267">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E268">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E269">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E270">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E271">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E272">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E273">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E274">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E275">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E276">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E277">
         <v>2024</v>
       </c>
     </row>
